--- a/FeatureTests/ICCvalues.xlsx
+++ b/FeatureTests/ICCvalues.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martijn Starmans\Dropbox\GISTDMRadiomics\GIST\ResultsGIST\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martijn Starmans\Documents\GitHub\GISTRadiomics\FeatureTests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A0D589-336E-4A1B-B52B-B82DACFA91DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0364A495-FE41-42C0-9537-30811B70EF2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ICCvalues_predict_200824" sheetId="1" r:id="rId1"/>
@@ -36,1696 +36,1696 @@
     <t>ICC</t>
   </si>
   <si>
-    <t>tf_LBP_peak_R3_P12_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_min_F0.5_A0.0_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_quartile_range_F0.5_A1.57_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_std_F0.5_A0.0_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_range_F0.5_A0.0_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_quartile_range_F0.5_A0.0_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_quartile_range_F0.5_A0.79_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_quartile_range_F0.5_A2.36_M0</t>
-  </si>
-  <si>
-    <t>logf_energy_sigma1_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_min_F0.5_A2.36_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_min_F0.5_A0.79_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_std_F0.5_A2.36_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_max_F0.5_A0.0_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_range_F0.5_A2.36_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_energy_F0.05_A0.0_M0</t>
-  </si>
-  <si>
-    <t>logf_quartile_range_sigma1_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_min_F0.5_A1.57_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_std_F0.5_A0.79_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_range_F0.5_A0.79_M0</t>
-  </si>
-  <si>
-    <t>logf_std_sigma1_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_quartile_range_F0.2_A2.36_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_max_F0.5_A2.36_M0</t>
-  </si>
-  <si>
-    <t>logf_min_sigma1_M0</t>
-  </si>
-  <si>
-    <t>vf_Frangi_inner_energy_SR(1.0, 10.0)_SS2.0_M0</t>
-  </si>
-  <si>
-    <t>vf_Frangi_inner_peak_position_SR(1.0, 10.0)_SS2.0_M0</t>
-  </si>
-  <si>
-    <t>sf_volume_2D_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_std_F0.5_A1.57_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_energy_F0.05_A1.57_M0</t>
-  </si>
-  <si>
-    <t>logf_range_sigma1_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_range_F0.5_A1.57_M0</t>
-  </si>
-  <si>
-    <t>logf_energy_sigma10_M0</t>
-  </si>
-  <si>
-    <t>logf_energy_sigma5_M0</t>
-  </si>
-  <si>
-    <t>phasef_phasesym_max_WL3_N5_M0</t>
-  </si>
-  <si>
-    <t>phasef_phasesym_range_WL3_N5_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_energy_F0.05_A2.36_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_max_F0.5_A0.79_M0</t>
-  </si>
-  <si>
-    <t>vf_Frangi_inner_peak_SR(1.0, 10.0)_SS2.0_M0</t>
-  </si>
-  <si>
-    <t>logf_min_sigma5_M0</t>
-  </si>
-  <si>
-    <t>tf_LBP_energy_R15_P36_M0</t>
-  </si>
-  <si>
-    <t>tf_LBP_energy_R8_P24_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_min_F0.2_A2.36_M0</t>
-  </si>
-  <si>
-    <t>tf_LBP_energy_R3_P12_M0</t>
-  </si>
-  <si>
-    <t>logf_min_sigma10_M0</t>
-  </si>
-  <si>
-    <t>vf_Frangi_inner_median_SR(1.0, 10.0)_SS2.0_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_std_F0.2_A0.0_M0</t>
-  </si>
-  <si>
-    <t>hf_max_M0</t>
-  </si>
-  <si>
-    <t>logf_mean_sigma1_M0</t>
-  </si>
-  <si>
-    <t>phasef_phasesym_std_WL3_N5_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_std_F0.2_A2.36_M0</t>
-  </si>
-  <si>
-    <t>logf_quartile_range_sigma5_M0</t>
-  </si>
-  <si>
-    <t>phasef_monogenic_energy_WL3_N5_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_min_F0.2_A0.0_M0</t>
-  </si>
-  <si>
-    <t>hf_range_M0</t>
-  </si>
-  <si>
-    <t>logf_max_sigma1_M0</t>
-  </si>
-  <si>
-    <t>hf_quartile_range_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_range_F0.2_A2.36_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_range_F0.2_A0.0_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_max_F0.5_A1.57_M0</t>
-  </si>
-  <si>
-    <t>logf_kurtosis_sigma1_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_quartile_range_F0.2_A0.0_M0</t>
-  </si>
-  <si>
-    <t>hf_std_M0</t>
-  </si>
-  <si>
-    <t>vf_Frangi_edge_median_SR(1.0, 10.0)_SS2.0_M0</t>
-  </si>
-  <si>
-    <t>vf_Frangi_full_median_SR(1.0, 10.0)_SS2.0_M0</t>
-  </si>
-  <si>
-    <t>vf_Frangi_inner_mean_SR(1.0, 10.0)_SS2.0_M0</t>
-  </si>
-  <si>
-    <t>logf_range_sigma5_M0</t>
-  </si>
-  <si>
-    <t>logf_quartile_range_sigma10_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_std_F0.05_A0.0_M0</t>
-  </si>
-  <si>
-    <t>sf_area_avg_2D_M0</t>
-  </si>
-  <si>
-    <t>phasef_phasecong_energy_WL3_N5_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_min_F0.05_A0.0_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_quartile_range_F0.2_A0.79_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_range_F0.05_A0.0_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_energy_F0.2_A1.57_M0</t>
-  </si>
-  <si>
-    <t>vf_Frangi_edge_peak_SR(1.0, 10.0)_SS2.0_M0</t>
-  </si>
-  <si>
-    <t>vf_Frangi_full_peak_SR(1.0, 10.0)_SS2.0_M0</t>
-  </si>
-  <si>
-    <t>logf_skewness_sigma1_M0</t>
-  </si>
-  <si>
-    <t>logf_std_sigma5_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_min_F0.2_A0.79_M0</t>
-  </si>
-  <si>
-    <t>phasef_monogenic_mean_WL3_N5_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_range_F0.2_A0.79_M0</t>
-  </si>
-  <si>
-    <t>hf_min_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_quartile_range_F0.2_A1.57_M0</t>
-  </si>
-  <si>
-    <t>logf_range_sigma10_M0</t>
-  </si>
-  <si>
-    <t>hf_kurtosis_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_energy_F0.2_A2.36_M0</t>
-  </si>
-  <si>
-    <t>phasef_monogenic_skewness_WL3_N5_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_energy_F0.2_A0.0_M0</t>
-  </si>
-  <si>
-    <t>phasef_monogenic_median_WL3_N5_M0</t>
-  </si>
-  <si>
-    <t>logf_kurtosis_sigma10_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_std_F0.2_A0.79_M0</t>
-  </si>
-  <si>
-    <t>sf_area_max_2D_M0</t>
-  </si>
-  <si>
-    <t>sf_area_std_2D_M0</t>
-  </si>
-  <si>
-    <t>phasef_phasesym_mean_WL3_N5_M0</t>
-  </si>
-  <si>
-    <t>vf_Frangi_inner_min_SR(1.0, 10.0)_SS2.0_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_max_F0.2_A0.0_M0</t>
-  </si>
-  <si>
-    <t>vf_Frangi_inner_quartile_range_SR(1.0, 10.0)_SS2.0_M0</t>
-  </si>
-  <si>
-    <t>logf_peak_position_sigma10_M0</t>
-  </si>
-  <si>
-    <t>vf_Frangi_edge_energy_SR(1.0, 10.0)_SS2.0_M0</t>
-  </si>
-  <si>
-    <t>vf_Frangi_full_energy_SR(1.0, 10.0)_SS2.0_M0</t>
-  </si>
-  <si>
-    <t>vf_Frangi_edge_mean_SR(1.0, 10.0)_SS2.0_M0</t>
-  </si>
-  <si>
-    <t>vf_Frangi_full_mean_SR(1.0, 10.0)_SS2.0_M0</t>
-  </si>
-  <si>
-    <t>phasef_phasesym_skewness_WL3_N5_M0</t>
-  </si>
-  <si>
-    <t>logf_max_sigma5_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_energy_F0.05_A0.79_M0</t>
-  </si>
-  <si>
-    <t>tf_LBP_std_R3_P12_M0</t>
-  </si>
-  <si>
-    <t>hf_skewness_M0</t>
-  </si>
-  <si>
-    <t>phasef_monogenic_quartile_range_WL3_N5_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_max_F0.2_A2.36_M0</t>
-  </si>
-  <si>
-    <t>vf_Frangi_inner_skewness_SR(1.0, 10.0)_SS2.0_M0</t>
-  </si>
-  <si>
-    <t>logf_kurtosis_sigma5_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_max_F0.05_A0.0_M0</t>
-  </si>
-  <si>
-    <t>phasef_monogenic_std_WL3_N5_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_range_F0.2_A1.57_M0</t>
-  </si>
-  <si>
-    <t>phasef_phasesym_quartile_range_WL3_N5_M0</t>
-  </si>
-  <si>
-    <t>logf_std_sigma10_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_kurtosis_F0.05_A0.79_M0</t>
-  </si>
-  <si>
-    <t>logf_skewness_sigma10_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_energy_F0.2_A0.79_M0</t>
-  </si>
-  <si>
-    <t>vf_Frangi_inner_max_SR(1.0, 10.0)_SS2.0_M0</t>
-  </si>
-  <si>
-    <t>vf_Frangi_inner_std_SR(1.0, 10.0)_SS2.0_M0</t>
-  </si>
-  <si>
-    <t>logf_peak_position_sigma5_M0</t>
-  </si>
-  <si>
-    <t>phasef_phasesym_entropy_WL3_N5_M0</t>
-  </si>
-  <si>
-    <t>hf_mean_M0</t>
-  </si>
-  <si>
-    <t>hf_median_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_skewness_F0.05_A1.57_M0</t>
-  </si>
-  <si>
-    <t>sf_rad_dist_avg_2D_M0</t>
-  </si>
-  <si>
-    <t>logf_mean_sigma10_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_max_F0.05_A0.79_M0</t>
-  </si>
-  <si>
-    <t>logf_max_sigma10_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_max_F0.2_A0.79_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_min_F0.2_A1.57_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_std_F0.05_A1.57_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_entropy_F0.05_A0.79_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_kurtosis_F0.2_A0.79_M0</t>
-  </si>
-  <si>
-    <t>phasef_monogenic_entropy_WL3_N5_M0</t>
-  </si>
-  <si>
-    <t>logf_entropy_sigma10_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_entropy_F0.05_A1.57_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_entropy_F0.2_A2.36_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_entropy_F0.5_A1.57_M0</t>
-  </si>
-  <si>
-    <t>hf_entropy_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_entropy_F0.5_A2.36_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_entropy_F0.5_A0.0_M0</t>
-  </si>
-  <si>
-    <t>logf_entropy_sigma5_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_entropy_F0.2_A0.79_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_entropy_F0.5_A0.79_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_entropy_F0.2_A1.57_M0</t>
-  </si>
-  <si>
-    <t>logf_entropy_sigma1_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_max_F0.2_A1.57_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_entropy_F0.2_A0.0_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_entropy_F0.05_A0.0_M0</t>
-  </si>
-  <si>
-    <t>vf_Frangi_inner_range_SR(1.0, 10.0)_SS2.0_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_entropy_F0.05_A2.36_M0</t>
-  </si>
-  <si>
-    <t>tf_LBP_entropy_R3_P12_M0</t>
-  </si>
-  <si>
-    <t>tf_LBP_entropy_R8_P24_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_range_F0.05_A1.57_M0</t>
-  </si>
-  <si>
-    <t>vf_Frangi_edge_min_SR(1.0, 10.0)_SS2.0_M0</t>
-  </si>
-  <si>
-    <t>vf_Frangi_full_min_SR(1.0, 10.0)_SS2.0_M0</t>
-  </si>
-  <si>
-    <t>tf_LBP_entropy_R15_P36_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_kurtosis_F0.05_A1.57_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_kurtosis_F0.2_A0.0_M0</t>
-  </si>
-  <si>
-    <t>vf_Frangi_edge_entropy_SR(1.0, 10.0)_SS2.0_M0</t>
-  </si>
-  <si>
-    <t>vf_Frangi_full_entropy_SR(1.0, 10.0)_SS2.0_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_max_F0.05_A1.57_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_quartile_range_F0.05_A1.57_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_std_F0.05_A0.79_M0</t>
-  </si>
-  <si>
-    <t>vf_Frangi_inner_entropy_SR(1.0, 10.0)_SS2.0_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_mean_F0.05_A2.36_M0</t>
-  </si>
-  <si>
-    <t>phasef_phasecong_entropy_WL3_N5_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_kurtosis_F0.05_A0.0_M0</t>
-  </si>
-  <si>
-    <t>logf_mean_sigma5_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_quartile_range_F0.05_A0.79_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_range_F0.05_A0.79_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_std_F0.2_A1.57_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_energy_F0.5_A2.36_M0</t>
-  </si>
-  <si>
-    <t>tf_LBP_quartile_range_R3_P12_M0</t>
-  </si>
-  <si>
-    <t>vf_Frangi_inner_kurtosis_SR(1.0, 10.0)_SS2.0_M0</t>
-  </si>
-  <si>
-    <t>vf_Frangi_edge_skewness_SR(1.0, 10.0)_SS2.0_M0</t>
-  </si>
-  <si>
-    <t>vf_Frangi_full_skewness_SR(1.0, 10.0)_SS2.0_M0</t>
-  </si>
-  <si>
-    <t>tf_LBP_skewness_R3_P12_M0</t>
-  </si>
-  <si>
-    <t>phasef_phasecong_mean_WL3_N5_M0</t>
-  </si>
-  <si>
-    <t>vf_Frangi_edge_quartile_range_SR(1.0, 10.0)_SS2.0_M0</t>
-  </si>
-  <si>
-    <t>vf_Frangi_full_quartile_range_SR(1.0, 10.0)_SS2.0_M0</t>
-  </si>
-  <si>
-    <t>phasef_phasecong_std_WL3_N5_M0</t>
-  </si>
-  <si>
-    <t>phasef_phasecong_max_WL3_N5_M0</t>
-  </si>
-  <si>
-    <t>phasef_phasecong_range_WL3_N5_M0</t>
-  </si>
-  <si>
-    <t>tf_LBP_mean_R3_P12_M0</t>
-  </si>
-  <si>
-    <t>vf_Frangi_edge_max_SR(1.0, 10.0)_SS2.0_M0</t>
-  </si>
-  <si>
-    <t>vf_Frangi_full_max_SR(1.0, 10.0)_SS2.0_M0</t>
-  </si>
-  <si>
-    <t>vf_Frangi_edge_std_SR(1.0, 10.0)_SS2.0_M0</t>
-  </si>
-  <si>
-    <t>vf_Frangi_full_std_SR(1.0, 10.0)_SS2.0_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_mean_F0.05_A0.79_M0</t>
-  </si>
-  <si>
-    <t>hf_peak_M0</t>
-  </si>
-  <si>
-    <t>phasef_phasesym_kurtosis_WL3_N5_M0</t>
-  </si>
-  <si>
-    <t>vf_Frangi_edge_range_SR(1.0, 10.0)_SS2.0_M0</t>
-  </si>
-  <si>
-    <t>vf_Frangi_full_range_SR(1.0, 10.0)_SS2.0_M0</t>
-  </si>
-  <si>
-    <t>phasef_monogenic_kurtosis_WL3_N5_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_homogeneityd1.0A0.79mean_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCM_homogeneityd1.0A1.57_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_correlationd1.0A0.79mean_M0</t>
-  </si>
-  <si>
-    <t>vf_Frangi_edge_peak_position_SR(1.0, 10.0)_SS2.0_M0</t>
-  </si>
-  <si>
-    <t>vf_Frangi_full_peak_position_SR(1.0, 10.0)_SS2.0_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_ASMd1.0A2.36std_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_kurtosis_F0.05_A2.36_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_energy_F0.5_A1.57_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_ASMd3.0A2.36mean_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_ASMd1.0A0.79mean_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_ASMd1.0A0.79std_M0</t>
-  </si>
-  <si>
-    <t>logf_skewness_sigma5_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_ASMd1.0A0.0mean_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_min_F0.05_A2.36_M0</t>
-  </si>
-  <si>
-    <t>logf_peak_sigma10_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_ASMd3.0A1.57std_M0</t>
-  </si>
-  <si>
-    <t>tf_LBP_kurtosis_R3_P12_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_ASMd1.0A1.57mean_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_ASMd3.0A0.79mean_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_ASMd3.0A2.36std_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_ASMd3.0A0.79std_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_ASMd3.0A0.0std_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_ASMd1.0A0.0std_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_correlationd1.0A0.0mean_M0</t>
-  </si>
-  <si>
-    <t>logf_median_sigma10_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCM_correlationd1.0A1.57_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_peak_position_F0.05_A1.57_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_min_F0.05_A1.57_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_ASMd1.0A1.57std_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_ASMd1.0A2.36mean_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_homogeneityd1.0A0.0mean_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCM_homogeneityd1.0A0.0_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_ASMd3.0A0.0mean_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_ASMd3.0A1.57mean_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_homogeneityd1.0A0.79std_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCM_homogeneityd1.0A2.36_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCM_correlationd1.0A0.0_M0</t>
-  </si>
-  <si>
-    <t>phasef_phasesym_energy_WL3_N5_M0</t>
-  </si>
-  <si>
-    <t>tf_LBP_skewness_R8_P24_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_quartile_range_F0.05_A2.36_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_mean_F0.5_A0.0_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCM_homogeneityd1.0A0.79_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_homogeneityd1.0A0.0std_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_quartile_range_F0.05_A0.0_M0</t>
-  </si>
-  <si>
-    <t>phasef_monogenic_range_WL3_N5_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_skewness_F0.05_A0.0_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_energyd1.0A0.79mean_M0</t>
-  </si>
-  <si>
-    <t>phasef_monogenic_max_WL3_N5_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_median_F0.05_A2.36_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_mean_F0.2_A0.79_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_energyd1.0A0.79std_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_correlationd1.0A0.79std_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_correlationd1.0A0.0std_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_energyd1.0A2.36std_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_energyd1.0A0.0mean_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_correlationd3.0A1.57std_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_dissimilarityd1.0A0.79mean_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCM_dissimilarityd1.0A1.57_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_energyd1.0A0.0std_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_energyd1.0A1.57mean_M0</t>
-  </si>
-  <si>
-    <t>tf_LBP_mean_R8_P24_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCM_homogeneityd3.0A1.57_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_homogeneityd1.0A2.36mean_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_energyd1.0A2.36mean_M0</t>
-  </si>
-  <si>
-    <t>sf_prax_avg_2D_M0</t>
-  </si>
-  <si>
-    <t>tf_LBP_std_R15_P36_M0</t>
-  </si>
-  <si>
-    <t>hf_energy_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_dissimilarityd1.0A0.0mean_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCM_dissimilarityd1.0A0.0_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_energyd1.0A1.57std_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCM_homogeneityd3.0A2.36_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_homogeneityd1.0A2.36std_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_energy_F0.5_A0.0_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCM_correlationd1.0A2.36_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_homogeneityd1.0A1.57mean_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCM_homogeneityd3.0A0.0_M0</t>
-  </si>
-  <si>
-    <t>tf_LBP_skewness_R15_P36_M0</t>
-  </si>
-  <si>
-    <t>vf_Frangi_edge_kurtosis_SR(1.0, 10.0)_SS2.0_M0</t>
-  </si>
-  <si>
-    <t>vf_Frangi_full_kurtosis_SR(1.0, 10.0)_SS2.0_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_skewness_F0.2_A2.36_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_homogeneityd1.0A1.57std_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCM_homogeneityd3.0A0.79_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_skewness_F0.05_A2.36_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_mean_F0.2_A0.0_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCM_correlationd1.0A0.79_M0</t>
-  </si>
-  <si>
-    <t>logf_peak_position_sigma1_M0</t>
-  </si>
-  <si>
-    <t>sf_rad_dist_std_2D_M0</t>
-  </si>
-  <si>
-    <t>sf_cvar_avg_2D_M0</t>
-  </si>
-  <si>
-    <t>hf_peak_position_M0</t>
-  </si>
-  <si>
-    <t>tf_LBP_kurtosis_R8_P24_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_energyd3.0A1.57std_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_std_F0.05_A2.36_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_mean_F0.2_A2.36_M0</t>
-  </si>
-  <si>
-    <t>tf_LBP_median_R3_P12_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_energyd3.0A2.36mean_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_correlationd3.0A0.0std_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_median_F0.2_A0.79_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_peak_F0.2_A0.79_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_mean_F0.05_A0.0_M0</t>
-  </si>
-  <si>
-    <t>tf_LBP_std_R8_P24_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_correlationd3.0A0.79mean_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCM_dissimilarityd1.0A2.36_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_dissimilarityd1.0A0.79std_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_skewness_F0.05_A0.79_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_energyd3.0A2.36std_M0</t>
-  </si>
-  <si>
-    <t>tf_LBP_mean_R15_P36_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_correlationd3.0A2.36std_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCM_energyd1.0A1.57_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_median_F0.2_A0.0_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_peak_F0.2_A0.0_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_homogeneityd3.0A2.36mean_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_energyd3.0A0.79mean_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_energyd3.0A0.0std_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_homogeneityd3.0A2.36std_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_energyd3.0A1.57mean_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_mean_F0.5_A0.79_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_energyd3.0A0.79std_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_dissimilarityd1.0A0.0std_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCM_dissimilarityd1.0A0.79_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCM_contrastd1.0A1.57_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_contrastd1.0A0.79mean_M0</t>
-  </si>
-  <si>
-    <t>tf_LBP_min_R8_P24_M0</t>
-  </si>
-  <si>
-    <t>tf_LBP_range_R8_P24_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_peak_position_F0.05_A0.0_M0</t>
-  </si>
-  <si>
-    <t>sf_solidity_avg_2D_M0</t>
-  </si>
-  <si>
-    <t>logf_median_sigma1_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCM_energyd1.0A0.0_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_correlationd3.0A2.36mean_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_homogeneityd3.0A1.57mean_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_mean_F0.05_A1.57_M0</t>
-  </si>
-  <si>
-    <t>phasef_monogenic_min_WL3_N5_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_contrastd1.0A0.0mean_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCM_contrastd1.0A0.0_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_correlationd3.0A0.79std_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_kurtosis_F0.2_A2.36_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_mean_F0.2_A1.57_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_homogeneityd3.0A1.57std_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_energyd3.0A0.0mean_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_skewness_F0.2_A0.0_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCM_energyd1.0A2.36_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_correlationd3.0A0.0mean_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_peak_position_F0.05_A2.36_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_range_F0.05_A2.36_M0</t>
-  </si>
-  <si>
-    <t>tf_LBP_quartile_range_R8_P24_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_correlationd1.0A2.36mean_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCM_energyd1.0A0.79_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_homogeneityd3.0A0.79std_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_homogeneityd3.0A0.79mean_M0</t>
-  </si>
-  <si>
-    <t>sf_convexity_avg_2D_M0</t>
-  </si>
-  <si>
-    <t>tf_LBP_kurtosis_R15_P36_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_mean_F0.5_A2.36_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCM_ASMd1.0A1.57_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_homogeneityd3.0A0.0std_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_skewness_F0.5_A0.0_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_median_F0.05_A1.57_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_correlationd1.0A2.36std_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_contrastd3.0A1.57std_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCM_energyd3.0A2.36_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_correlationd1.0A1.57std_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_correlationd1.0A1.57mean_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCM_energyd3.0A1.57_M0</t>
-  </si>
-  <si>
-    <t>sf_evar_avg_2D_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCM_ASMd1.0A0.0_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_peak_F0.05_A1.57_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCM_energyd3.0A0.79_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_contrastd3.0A2.36mean_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCM_ASMd1.0A2.36_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCM_energyd3.0A0.0_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_energy_F0.5_A0.79_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_homogeneityd3.0A0.0mean_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_median_F0.2_A2.36_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_peak_F0.2_A2.36_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_mean_F0.5_A1.57_M0</t>
-  </si>
-  <si>
-    <t>sf_compactness_avg_2D_M0</t>
-  </si>
-  <si>
-    <t>of_theta_z_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCM_ASMd1.0A0.79_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCM_correlationd3.0A1.57_M0</t>
-  </si>
-  <si>
-    <t>phasef_phasecong_skewness_WL3_N5_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_contrastd1.0A0.79std_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCM_contrastd1.0A2.36_M0</t>
-  </si>
-  <si>
-    <t>of_theta_x_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_peak_position_F0.5_A2.36_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_median_F0.5_A0.0_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_peak_F0.5_A0.0_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_contrastd3.0A0.0std_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_correlationd3.0A1.57mean_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCM_correlationd3.0A2.36_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCM_ASMd3.0A2.36_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCM_ASMd3.0A1.57_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCM_ASMd3.0A0.79_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCM_correlationd3.0A0.0_M0</t>
-  </si>
-  <si>
-    <t>phasef_phasecong_quartile_range_WL3_N5_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_contrastd3.0A2.36std_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCM_contrastd1.0A0.79_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_contrastd1.0A0.0std_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCM_ASMd3.0A0.0_M0</t>
-  </si>
-  <si>
-    <t>sf_solidity_std_2D_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCM_correlationd3.0A0.79_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_contrastd3.0A1.57mean_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCM_dissimilarityd3.0A2.36_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_dissimilarityd1.0A2.36std_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_dissimilarityd3.0A2.36mean_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_max_F0.05_A2.36_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_dissimilarityd1.0A2.36mean_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCM_dissimilarityd3.0A1.57_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_contrastd3.0A0.79mean_M0</t>
-  </si>
-  <si>
-    <t>logf_median_sigma5_M0</t>
-  </si>
-  <si>
-    <t>logf_peak_sigma5_M0</t>
-  </si>
-  <si>
-    <t>sf_convexity_std_2D_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_dissimilarityd3.0A0.0std_M0</t>
-  </si>
-  <si>
-    <t>phasef_monogenic_peak_WL3_N5_M0</t>
-  </si>
-  <si>
-    <t>phasef_monogenic_peak_position_WL3_N5_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_dissimilarityd3.0A0.79mean_M0</t>
-  </si>
-  <si>
-    <t>sf_roughness_avg_2D_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCM_dissimilarityd3.0A0.79_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_dissimilarityd1.0A1.57std_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCM_dissimilarityd3.0A0.0_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_dissimilarityd1.0A1.57mean_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_dissimilarityd3.0A1.57std_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_median_F0.5_A2.36_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_peak_F0.5_A2.36_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_dissimilarityd3.0A2.36std_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_contrastd3.0A0.79std_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_peak_position_F0.5_A1.57_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_kurtosis_F0.5_A0.0_M0</t>
-  </si>
-  <si>
-    <t>sf_cvar_std_2D_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_contrastd3.0A0.0mean_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_dissimilarityd3.0A1.57mean_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_min_F0.05_A0.79_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_peak_position_F0.2_A2.36_M0</t>
-  </si>
-  <si>
-    <t>sf_roughness_std_2D_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_dissimilarityd3.0A0.0mean_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_dissimilarityd3.0A0.79std_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_peak_position_F0.5_A0.79_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_peak_position_F0.5_A0.0_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_skewness_F0.5_A1.57_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_kurtosis_F0.2_A1.57_M0</t>
-  </si>
-  <si>
-    <t>phasef_phasecong_kurtosis_WL3_N5_M0</t>
-  </si>
-  <si>
-    <t>logf_peak_sigma1_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_skewness_F0.5_A0.79_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_median_F0.05_A0.79_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_median_F0.2_A1.57_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_peak_F0.2_A1.57_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCM_contrastd3.0A2.36_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_contrastd1.0A2.36std_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_peak_position_F0.05_A0.79_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_skewness_F0.2_A0.79_M0</t>
-  </si>
-  <si>
-    <t>sf_compactness_std_2D_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_contrastd1.0A2.36mean_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCM_contrastd3.0A1.57_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_peak_position_F0.2_A0.0_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_contrastd1.0A1.57std_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCM_contrastd3.0A0.79_M0</t>
-  </si>
-  <si>
-    <t>tf_LBP_quartile_range_R15_P36_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCMMS_contrastd1.0A1.57mean_M0</t>
-  </si>
-  <si>
-    <t>tf_GLCM_contrastd3.0A0.0_M0</t>
-  </si>
-  <si>
-    <t>sf_evar_std_2D_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_median_F0.5_A0.79_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_peak_F0.5_A0.79_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_peak_F0.05_A0.79_M0</t>
-  </si>
-  <si>
-    <t>of_theta_y_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_kurtosis_F0.5_A1.57_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_median_F0.05_A0.0_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_median_F0.5_A1.57_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_peak_F0.5_A1.57_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_kurtosis_F0.5_A2.36_M0</t>
-  </si>
-  <si>
-    <t>sf_prax_std_2D_M0</t>
-  </si>
-  <si>
-    <t>sf_area_min_2D_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_peak_position_F0.2_A1.57_M0</t>
-  </si>
-  <si>
-    <t>tf_LBP_min_R15_P36_M0</t>
-  </si>
-  <si>
-    <t>tf_LBP_range_R15_P36_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_kurtosis_F0.5_A0.79_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_skewness_F0.2_A1.57_M0</t>
-  </si>
-  <si>
-    <t>phasef_phasesym_median_WL3_N5_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_peak_F0.05_A2.36_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_skewness_F0.5_A2.36_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_peak_F0.05_A0.0_M0</t>
-  </si>
-  <si>
-    <t>tf_Gabor_peak_position_F0.2_A0.79_M0</t>
-  </si>
-  <si>
-    <t>tf_LBP_median_R15_P36_M0</t>
-  </si>
-  <si>
-    <t>phasef_phasecong_median_WL3_N5_M0</t>
-  </si>
-  <si>
-    <t>phasef_phasecong_min_WL3_N5_M0</t>
-  </si>
-  <si>
-    <t>phasef_phasecong_peak_WL3_N5_M0</t>
-  </si>
-  <si>
-    <t>phasef_phasecong_peak_position_WL3_N5_M0</t>
-  </si>
-  <si>
-    <t>phasef_phasesym_min_WL3_N5_M0</t>
-  </si>
-  <si>
-    <t>phasef_phasesym_peak_WL3_N5_M0</t>
-  </si>
-  <si>
-    <t>phasef_phasesym_peak_position_WL3_N5_M0</t>
-  </si>
-  <si>
-    <t>tf_LBP_max_R15_P36_M0</t>
-  </si>
-  <si>
-    <t>tf_LBP_max_R3_P12_M0</t>
-  </si>
-  <si>
-    <t>tf_LBP_max_R8_P24_M0</t>
-  </si>
-  <si>
-    <t>tf_LBP_median_R8_P24_M0</t>
-  </si>
-  <si>
-    <t>tf_LBP_min_R3_P12_M0</t>
-  </si>
-  <si>
-    <t>tf_LBP_peak_R15_P36_M0</t>
-  </si>
-  <si>
-    <t>tf_LBP_peak_R8_P24_M0</t>
-  </si>
-  <si>
-    <t>tf_LBP_peak_position_R15_P36_M0</t>
-  </si>
-  <si>
-    <t>tf_LBP_peak_position_R3_P12_M0</t>
-  </si>
-  <si>
-    <t>tf_LBP_peak_position_R8_P24_M0</t>
-  </si>
-  <si>
-    <t>tf_LBP_range_R3_P12_M0</t>
-  </si>
-  <si>
-    <t>of_COM_z_M0</t>
-  </si>
-  <si>
-    <t>of_COM_y_M0</t>
-  </si>
-  <si>
-    <t>of_COM_Index_z_M0</t>
-  </si>
-  <si>
-    <t>sf_shape_MeshVolume_M0</t>
-  </si>
-  <si>
-    <t>sf_shape_VoxelVolume_M0</t>
-  </si>
-  <si>
-    <t>of_COM_x_M0</t>
-  </si>
-  <si>
-    <t>tf_GLDM_DependenceNonUniformity_M0</t>
-  </si>
-  <si>
-    <t>tf_GLSZM_ZoneVariance_M0</t>
-  </si>
-  <si>
-    <t>tf_GLSZM_LargeAreaEmphasis_M0</t>
-  </si>
-  <si>
-    <t>sf_shape_LeastAxisLength_M0</t>
-  </si>
-  <si>
-    <t>tf_GLRLM_GrayLevelNonUniformity_M0</t>
-  </si>
-  <si>
-    <t>tf_GLDM_GrayLevelNonUniformity_M0</t>
-  </si>
-  <si>
-    <t>tf_GLSZM_GrayLevelNonUniformity_M0</t>
-  </si>
-  <si>
-    <t>sf_shape_SurfaceVolumeRatio_M0</t>
-  </si>
-  <si>
-    <t>sf_shape_SurfaceArea_M0</t>
-  </si>
-  <si>
-    <t>tf_NGTDM_Coarseness_M0</t>
-  </si>
-  <si>
-    <t>tf_GLSZM_SmallAreaEmphasis_M0</t>
-  </si>
-  <si>
-    <t>tf_GLDM_SmallDependenceHighGrayLevelEmphasis_M0</t>
-  </si>
-  <si>
-    <t>sf_shape_Maximum2DDiameterColumn_M0</t>
-  </si>
-  <si>
-    <t>tf_GLSZM_SizeZoneNonUniformityNormalized_M0</t>
-  </si>
-  <si>
-    <t>sf_shape_Flatness_M0</t>
-  </si>
-  <si>
-    <t>of_COM_Index_y_M0</t>
-  </si>
-  <si>
-    <t>sf_shape_MinorAxisLength_M0</t>
-  </si>
-  <si>
-    <t>tf_GLDM_SmallDependenceEmphasis_M0</t>
-  </si>
-  <si>
-    <t>tf_GLRLM_RunLengthNonUniformity_M0</t>
-  </si>
-  <si>
-    <t>sf_shape_Maximum2DDiameterSlice_M0</t>
-  </si>
-  <si>
-    <t>tf_GLRLM_RunVariance_M0</t>
-  </si>
-  <si>
-    <t>sf_shape_Maximum2DDiameterRow_M0</t>
-  </si>
-  <si>
-    <t>tf_GLRLM_LongRunEmphasis_M0</t>
-  </si>
-  <si>
-    <t>sf_shape_MajorAxisLength_M0</t>
-  </si>
-  <si>
-    <t>sf_shape_Elongation_M0</t>
-  </si>
-  <si>
-    <t>sf_shape_Maximum3DDiameter_M0</t>
-  </si>
-  <si>
-    <t>tf_NGTDM_Busyness_M0</t>
-  </si>
-  <si>
-    <t>of_COM_Index_x_M0</t>
-  </si>
-  <si>
-    <t>tf_GLSZM_SizeZoneNonUniformity_M0</t>
-  </si>
-  <si>
-    <t>tf_GLDM_DependenceNonUniformityNormalized_M0</t>
-  </si>
-  <si>
-    <t>tf_GLDM_SmallDependenceLowGrayLevelEmphasis_M0</t>
-  </si>
-  <si>
-    <t>tf_GLSZM_ZonePercentage_M0</t>
-  </si>
-  <si>
-    <t>tf_GLRLM_ShortRunHighGrayLevelEmphasis_M0</t>
-  </si>
-  <si>
-    <t>tf_GLSZM_LargeAreaLowGrayLevelEmphasis_M0</t>
-  </si>
-  <si>
-    <t>tf_GLDM_DependenceEntropy_M0</t>
-  </si>
-  <si>
-    <t>tf_GLSZM_LargeAreaHighGrayLevelEmphasis_M0</t>
-  </si>
-  <si>
-    <t>sf_shape_Sphericity_M0</t>
-  </si>
-  <si>
-    <t>tf_GLDM_LargeDependenceEmphasis_M0</t>
-  </si>
-  <si>
-    <t>tf_GLRLM_HighGrayLevelRunEmphasis_M0</t>
-  </si>
-  <si>
-    <t>tf_GLDM_HighGrayLevelEmphasis_M0</t>
-  </si>
-  <si>
-    <t>tf_GLRLM_ShortRunEmphasis_M0</t>
-  </si>
-  <si>
-    <t>tf_GLDM_LargeDependenceLowGrayLevelEmphasis_M0</t>
-  </si>
-  <si>
-    <t>tf_GLRLM_RunLengthNonUniformityNormalized_M0</t>
-  </si>
-  <si>
-    <t>tf_GLSZM_SmallAreaHighGrayLevelEmphasis_M0</t>
-  </si>
-  <si>
-    <t>tf_GLRLM_RunPercentage_M0</t>
-  </si>
-  <si>
-    <t>tf_GLRLM_RunEntropy_M0</t>
-  </si>
-  <si>
-    <t>tf_NGTDM_Strength_M0</t>
-  </si>
-  <si>
-    <t>tf_GLRLM_LongRunLowGrayLevelEmphasis_M0</t>
-  </si>
-  <si>
-    <t>tf_GLRLM_GrayLevelNonUniformityNormalized_M0</t>
-  </si>
-  <si>
-    <t>tf_GLDM_LowGrayLevelEmphasis_M0</t>
-  </si>
-  <si>
-    <t>tf_GLSZM_HighGrayLevelZoneEmphasis_M0</t>
-  </si>
-  <si>
-    <t>tf_NGTDM_Complexity_M0</t>
-  </si>
-  <si>
-    <t>tf_GLDM_DependenceVariance_M0</t>
-  </si>
-  <si>
-    <t>tf_GLSZM_GrayLevelNonUniformityNormalized_M0</t>
-  </si>
-  <si>
-    <t>tf_GLSZM_ZoneEntropy_M0</t>
-  </si>
-  <si>
-    <t>tf_GLRLM_GrayLevelVariance_M0</t>
-  </si>
-  <si>
-    <t>tf_GLDM_GrayLevelVariance_M0</t>
-  </si>
-  <si>
-    <t>tf_GLSZM_GrayLevelVariance_M0</t>
-  </si>
-  <si>
-    <t>tf_GLSZM_LowGrayLevelZoneEmphasis_M0</t>
-  </si>
-  <si>
-    <t>tf_GLSZM_SmallAreaLowGrayLevelEmphasis_M0</t>
-  </si>
-  <si>
-    <t>tf_GLRLM_LowGrayLevelRunEmphasis_M0</t>
-  </si>
-  <si>
-    <t>tf_NGTDM_Contrast_M0</t>
-  </si>
-  <si>
-    <t>tf_GLRLM_ShortRunLowGrayLevelEmphasis_M0</t>
-  </si>
-  <si>
-    <t>tf_GLDM_LargeDependenceHighGrayLevelEmphasis_M0</t>
-  </si>
-  <si>
-    <t>tf_GLRLM_LongRunHighGrayLevelEmphasis_M0</t>
+    <t>tf_LBP_peak_R3_P12</t>
+  </si>
+  <si>
+    <t>of_COM_z</t>
+  </si>
+  <si>
+    <t>tf_Gabor_min_F0.5_A0.0</t>
+  </si>
+  <si>
+    <t>tf_Gabor_quartile_range_F0.5_A1.57</t>
+  </si>
+  <si>
+    <t>tf_Gabor_std_F0.5_A0.0</t>
+  </si>
+  <si>
+    <t>tf_Gabor_range_F0.5_A0.0</t>
+  </si>
+  <si>
+    <t>tf_Gabor_quartile_range_F0.5_A0.0</t>
+  </si>
+  <si>
+    <t>tf_Gabor_quartile_range_F0.5_A0.79</t>
+  </si>
+  <si>
+    <t>tf_Gabor_quartile_range_F0.5_A2.36</t>
+  </si>
+  <si>
+    <t>logf_energy_sigma1</t>
+  </si>
+  <si>
+    <t>tf_Gabor_min_F0.5_A2.36</t>
+  </si>
+  <si>
+    <t>tf_Gabor_min_F0.5_A0.79</t>
+  </si>
+  <si>
+    <t>tf_Gabor_std_F0.5_A2.36</t>
+  </si>
+  <si>
+    <t>tf_Gabor_max_F0.5_A0.0</t>
+  </si>
+  <si>
+    <t>tf_Gabor_range_F0.5_A2.36</t>
+  </si>
+  <si>
+    <t>of_COM_y</t>
+  </si>
+  <si>
+    <t>tf_Gabor_energy_F0.05_A0.0</t>
+  </si>
+  <si>
+    <t>logf_quartile_range_sigma1</t>
+  </si>
+  <si>
+    <t>tf_Gabor_min_F0.5_A1.57</t>
+  </si>
+  <si>
+    <t>of_COM_Index_z</t>
+  </si>
+  <si>
+    <t>tf_Gabor_std_F0.5_A0.79</t>
+  </si>
+  <si>
+    <t>tf_Gabor_range_F0.5_A0.79</t>
+  </si>
+  <si>
+    <t>logf_std_sigma1</t>
+  </si>
+  <si>
+    <t>tf_Gabor_quartile_range_F0.2_A2.36</t>
+  </si>
+  <si>
+    <t>tf_Gabor_max_F0.5_A2.36</t>
+  </si>
+  <si>
+    <t>logf_min_sigma1</t>
+  </si>
+  <si>
+    <t>vf_Frangi_inner_energy_SR(1.0, 10.0)_SS2.0</t>
+  </si>
+  <si>
+    <t>vf_Frangi_inner_peak_position_SR(1.0, 10.0)_SS2.0</t>
+  </si>
+  <si>
+    <t>sf_shape_MeshVolume</t>
+  </si>
+  <si>
+    <t>sf_volume_2D</t>
+  </si>
+  <si>
+    <t>sf_shape_VoxelVolume</t>
+  </si>
+  <si>
+    <t>tf_Gabor_std_F0.5_A1.57</t>
+  </si>
+  <si>
+    <t>tf_Gabor_energy_F0.05_A1.57</t>
+  </si>
+  <si>
+    <t>logf_range_sigma1</t>
+  </si>
+  <si>
+    <t>tf_Gabor_range_F0.5_A1.57</t>
+  </si>
+  <si>
+    <t>logf_energy_sigma10</t>
+  </si>
+  <si>
+    <t>logf_energy_sigma5</t>
+  </si>
+  <si>
+    <t>phasef_phasesym_max_WL3_N5</t>
+  </si>
+  <si>
+    <t>phasef_phasesym_range_WL3_N5</t>
+  </si>
+  <si>
+    <t>tf_Gabor_energy_F0.05_A2.36</t>
+  </si>
+  <si>
+    <t>tf_Gabor_max_F0.5_A0.79</t>
+  </si>
+  <si>
+    <t>vf_Frangi_inner_peak_SR(1.0, 10.0)_SS2.0</t>
+  </si>
+  <si>
+    <t>logf_min_sigma5</t>
+  </si>
+  <si>
+    <t>tf_LBP_energy_R15_P36</t>
+  </si>
+  <si>
+    <t>tf_LBP_energy_R8_P24</t>
+  </si>
+  <si>
+    <t>tf_Gabor_min_F0.2_A2.36</t>
+  </si>
+  <si>
+    <t>of_COM_x</t>
+  </si>
+  <si>
+    <t>tf_LBP_energy_R3_P12</t>
+  </si>
+  <si>
+    <t>logf_min_sigma10</t>
+  </si>
+  <si>
+    <t>vf_Frangi_inner_median_SR(1.0, 10.0)_SS2.0</t>
+  </si>
+  <si>
+    <t>tf_Gabor_std_F0.2_A0.0</t>
+  </si>
+  <si>
+    <t>hf_max</t>
+  </si>
+  <si>
+    <t>tf_GLDM_DependenceNonUniformity</t>
+  </si>
+  <si>
+    <t>logf_mean_sigma1</t>
+  </si>
+  <si>
+    <t>tf_GLSZM_ZoneVariance</t>
+  </si>
+  <si>
+    <t>tf_GLSZM_LargeAreaEmphasis</t>
+  </si>
+  <si>
+    <t>phasef_phasesym_std_WL3_N5</t>
+  </si>
+  <si>
+    <t>tf_Gabor_std_F0.2_A2.36</t>
+  </si>
+  <si>
+    <t>logf_quartile_range_sigma5</t>
+  </si>
+  <si>
+    <t>phasef_monogenic_energy_WL3_N5</t>
+  </si>
+  <si>
+    <t>tf_Gabor_min_F0.2_A0.0</t>
+  </si>
+  <si>
+    <t>hf_range</t>
+  </si>
+  <si>
+    <t>logf_max_sigma1</t>
+  </si>
+  <si>
+    <t>hf_quartile_range</t>
+  </si>
+  <si>
+    <t>tf_Gabor_range_F0.2_A2.36</t>
+  </si>
+  <si>
+    <t>tf_Gabor_range_F0.2_A0.0</t>
+  </si>
+  <si>
+    <t>tf_Gabor_max_F0.5_A1.57</t>
+  </si>
+  <si>
+    <t>logf_kurtosis_sigma1</t>
+  </si>
+  <si>
+    <t>tf_Gabor_quartile_range_F0.2_A0.0</t>
+  </si>
+  <si>
+    <t>hf_std</t>
+  </si>
+  <si>
+    <t>vf_Frangi_edge_median_SR(1.0, 10.0)_SS2.0</t>
+  </si>
+  <si>
+    <t>vf_Frangi_full_median_SR(1.0, 10.0)_SS2.0</t>
+  </si>
+  <si>
+    <t>vf_Frangi_inner_mean_SR(1.0, 10.0)_SS2.0</t>
+  </si>
+  <si>
+    <t>sf_shape_LeastAxisLength</t>
+  </si>
+  <si>
+    <t>tf_GLRLM_GrayLevelNonUniformity</t>
+  </si>
+  <si>
+    <t>tf_GLDM_GrayLevelNonUniformity</t>
+  </si>
+  <si>
+    <t>logf_range_sigma5</t>
+  </si>
+  <si>
+    <t>logf_quartile_range_sigma10</t>
+  </si>
+  <si>
+    <t>tf_Gabor_std_F0.05_A0.0</t>
+  </si>
+  <si>
+    <t>sf_area_avg_2D</t>
+  </si>
+  <si>
+    <t>phasef_phasecong_energy_WL3_N5</t>
+  </si>
+  <si>
+    <t>tf_Gabor_min_F0.05_A0.0</t>
+  </si>
+  <si>
+    <t>tf_Gabor_quartile_range_F0.2_A0.79</t>
+  </si>
+  <si>
+    <t>tf_Gabor_range_F0.05_A0.0</t>
+  </si>
+  <si>
+    <t>tf_Gabor_energy_F0.2_A1.57</t>
+  </si>
+  <si>
+    <t>vf_Frangi_edge_peak_SR(1.0, 10.0)_SS2.0</t>
+  </si>
+  <si>
+    <t>vf_Frangi_full_peak_SR(1.0, 10.0)_SS2.0</t>
+  </si>
+  <si>
+    <t>logf_skewness_sigma1</t>
+  </si>
+  <si>
+    <t>logf_std_sigma5</t>
+  </si>
+  <si>
+    <t>tf_Gabor_min_F0.2_A0.79</t>
+  </si>
+  <si>
+    <t>phasef_monogenic_mean_WL3_N5</t>
+  </si>
+  <si>
+    <t>tf_Gabor_range_F0.2_A0.79</t>
+  </si>
+  <si>
+    <t>tf_GLSZM_GrayLevelNonUniformity</t>
+  </si>
+  <si>
+    <t>hf_min</t>
+  </si>
+  <si>
+    <t>sf_shape_SurfaceVolumeRatio</t>
+  </si>
+  <si>
+    <t>tf_Gabor_quartile_range_F0.2_A1.57</t>
+  </si>
+  <si>
+    <t>logf_range_sigma10</t>
+  </si>
+  <si>
+    <t>hf_kurtosis</t>
+  </si>
+  <si>
+    <t>tf_Gabor_energy_F0.2_A2.36</t>
+  </si>
+  <si>
+    <t>phasef_monogenic_skewness_WL3_N5</t>
+  </si>
+  <si>
+    <t>tf_Gabor_energy_F0.2_A0.0</t>
+  </si>
+  <si>
+    <t>phasef_monogenic_median_WL3_N5</t>
+  </si>
+  <si>
+    <t>logf_kurtosis_sigma10</t>
+  </si>
+  <si>
+    <t>tf_Gabor_std_F0.2_A0.79</t>
+  </si>
+  <si>
+    <t>sf_area_max_2D</t>
+  </si>
+  <si>
+    <t>sf_area_std_2D</t>
+  </si>
+  <si>
+    <t>phasef_phasesym_mean_WL3_N5</t>
+  </si>
+  <si>
+    <t>sf_shape_SurfaceArea</t>
+  </si>
+  <si>
+    <t>vf_Frangi_inner_min_SR(1.0, 10.0)_SS2.0</t>
+  </si>
+  <si>
+    <t>tf_Gabor_max_F0.2_A0.0</t>
+  </si>
+  <si>
+    <t>vf_Frangi_inner_quartile_range_SR(1.0, 10.0)_SS2.0</t>
+  </si>
+  <si>
+    <t>logf_peak_position_sigma10</t>
+  </si>
+  <si>
+    <t>vf_Frangi_edge_energy_SR(1.0, 10.0)_SS2.0</t>
+  </si>
+  <si>
+    <t>vf_Frangi_full_energy_SR(1.0, 10.0)_SS2.0</t>
+  </si>
+  <si>
+    <t>vf_Frangi_edge_mean_SR(1.0, 10.0)_SS2.0</t>
+  </si>
+  <si>
+    <t>vf_Frangi_full_mean_SR(1.0, 10.0)_SS2.0</t>
+  </si>
+  <si>
+    <t>phasef_phasesym_skewness_WL3_N5</t>
+  </si>
+  <si>
+    <t>logf_max_sigma5</t>
+  </si>
+  <si>
+    <t>tf_Gabor_energy_F0.05_A0.79</t>
+  </si>
+  <si>
+    <t>tf_LBP_std_R3_P12</t>
+  </si>
+  <si>
+    <t>tf_NGTDM_Coarseness</t>
+  </si>
+  <si>
+    <t>hf_skewness</t>
+  </si>
+  <si>
+    <t>phasef_monogenic_quartile_range_WL3_N5</t>
+  </si>
+  <si>
+    <t>tf_GLSZM_SmallAreaEmphasis</t>
+  </si>
+  <si>
+    <t>tf_Gabor_max_F0.2_A2.36</t>
+  </si>
+  <si>
+    <t>tf_GLDM_SmallDependenceHighGrayLevelEmphasis</t>
+  </si>
+  <si>
+    <t>sf_shape_Maximum2DDiameterColumn</t>
+  </si>
+  <si>
+    <t>vf_Frangi_inner_skewness_SR(1.0, 10.0)_SS2.0</t>
+  </si>
+  <si>
+    <t>logf_kurtosis_sigma5</t>
+  </si>
+  <si>
+    <t>tf_GLSZM_SizeZoneNonUniformityNormalized</t>
+  </si>
+  <si>
+    <t>tf_Gabor_max_F0.05_A0.0</t>
+  </si>
+  <si>
+    <t>phasef_monogenic_std_WL3_N5</t>
+  </si>
+  <si>
+    <t>tf_Gabor_range_F0.2_A1.57</t>
+  </si>
+  <si>
+    <t>phasef_phasesym_quartile_range_WL3_N5</t>
+  </si>
+  <si>
+    <t>logf_std_sigma10</t>
+  </si>
+  <si>
+    <t>tf_Gabor_kurtosis_F0.05_A0.79</t>
+  </si>
+  <si>
+    <t>logf_skewness_sigma10</t>
+  </si>
+  <si>
+    <t>tf_Gabor_energy_F0.2_A0.79</t>
+  </si>
+  <si>
+    <t>sf_shape_Flatness</t>
+  </si>
+  <si>
+    <t>vf_Frangi_inner_max_SR(1.0, 10.0)_SS2.0</t>
+  </si>
+  <si>
+    <t>of_COM_Index_y</t>
+  </si>
+  <si>
+    <t>vf_Frangi_inner_std_SR(1.0, 10.0)_SS2.0</t>
+  </si>
+  <si>
+    <t>sf_shape_MinorAxisLength</t>
+  </si>
+  <si>
+    <t>logf_peak_position_sigma5</t>
+  </si>
+  <si>
+    <t>phasef_phasesym_entropy_WL3_N5</t>
+  </si>
+  <si>
+    <t>hf_mean</t>
+  </si>
+  <si>
+    <t>hf_median</t>
+  </si>
+  <si>
+    <t>tf_GLDM_SmallDependenceEmphasis</t>
+  </si>
+  <si>
+    <t>tf_Gabor_skewness_F0.05_A1.57</t>
+  </si>
+  <si>
+    <t>sf_rad_dist_avg_2D</t>
+  </si>
+  <si>
+    <t>logf_mean_sigma10</t>
+  </si>
+  <si>
+    <t>tf_Gabor_max_F0.05_A0.79</t>
+  </si>
+  <si>
+    <t>logf_max_sigma10</t>
+  </si>
+  <si>
+    <t>tf_Gabor_max_F0.2_A0.79</t>
+  </si>
+  <si>
+    <t>tf_Gabor_min_F0.2_A1.57</t>
+  </si>
+  <si>
+    <t>tf_GLRLM_RunLengthNonUniformity</t>
+  </si>
+  <si>
+    <t>tf_Gabor_std_F0.05_A1.57</t>
+  </si>
+  <si>
+    <t>tf_Gabor_entropy_F0.05_A0.79</t>
+  </si>
+  <si>
+    <t>tf_Gabor_kurtosis_F0.2_A0.79</t>
+  </si>
+  <si>
+    <t>phasef_monogenic_entropy_WL3_N5</t>
+  </si>
+  <si>
+    <t>logf_entropy_sigma10</t>
+  </si>
+  <si>
+    <t>sf_shape_Maximum2DDiameterSlice</t>
+  </si>
+  <si>
+    <t>tf_Gabor_entropy_F0.05_A1.57</t>
+  </si>
+  <si>
+    <t>tf_Gabor_entropy_F0.2_A2.36</t>
+  </si>
+  <si>
+    <t>tf_Gabor_entropy_F0.5_A1.57</t>
+  </si>
+  <si>
+    <t>hf_entropy</t>
+  </si>
+  <si>
+    <t>tf_Gabor_entropy_F0.5_A2.36</t>
+  </si>
+  <si>
+    <t>tf_Gabor_entropy_F0.5_A0.0</t>
+  </si>
+  <si>
+    <t>logf_entropy_sigma5</t>
+  </si>
+  <si>
+    <t>tf_Gabor_entropy_F0.2_A0.79</t>
+  </si>
+  <si>
+    <t>tf_Gabor_entropy_F0.5_A0.79</t>
+  </si>
+  <si>
+    <t>tf_Gabor_entropy_F0.2_A1.57</t>
+  </si>
+  <si>
+    <t>logf_entropy_sigma1</t>
+  </si>
+  <si>
+    <t>tf_GLRLM_RunVariance</t>
+  </si>
+  <si>
+    <t>tf_Gabor_max_F0.2_A1.57</t>
+  </si>
+  <si>
+    <t>tf_Gabor_entropy_F0.2_A0.0</t>
+  </si>
+  <si>
+    <t>tf_Gabor_entropy_F0.05_A0.0</t>
+  </si>
+  <si>
+    <t>vf_Frangi_inner_range_SR(1.0, 10.0)_SS2.0</t>
+  </si>
+  <si>
+    <t>tf_Gabor_entropy_F0.05_A2.36</t>
+  </si>
+  <si>
+    <t>sf_shape_Maximum2DDiameterRow</t>
+  </si>
+  <si>
+    <t>tf_LBP_entropy_R3_P12</t>
+  </si>
+  <si>
+    <t>tf_LBP_entropy_R8_P24</t>
+  </si>
+  <si>
+    <t>tf_Gabor_range_F0.05_A1.57</t>
+  </si>
+  <si>
+    <t>vf_Frangi_edge_min_SR(1.0, 10.0)_SS2.0</t>
+  </si>
+  <si>
+    <t>vf_Frangi_full_min_SR(1.0, 10.0)_SS2.0</t>
+  </si>
+  <si>
+    <t>tf_LBP_entropy_R15_P36</t>
+  </si>
+  <si>
+    <t>tf_Gabor_kurtosis_F0.05_A1.57</t>
+  </si>
+  <si>
+    <t>tf_Gabor_kurtosis_F0.2_A0.0</t>
+  </si>
+  <si>
+    <t>vf_Frangi_edge_entropy_SR(1.0, 10.0)_SS2.0</t>
+  </si>
+  <si>
+    <t>vf_Frangi_full_entropy_SR(1.0, 10.0)_SS2.0</t>
+  </si>
+  <si>
+    <t>tf_Gabor_max_F0.05_A1.57</t>
+  </si>
+  <si>
+    <t>tf_Gabor_quartile_range_F0.05_A1.57</t>
+  </si>
+  <si>
+    <t>tf_Gabor_std_F0.05_A0.79</t>
+  </si>
+  <si>
+    <t>vf_Frangi_inner_entropy_SR(1.0, 10.0)_SS2.0</t>
+  </si>
+  <si>
+    <t>tf_Gabor_mean_F0.05_A2.36</t>
+  </si>
+  <si>
+    <t>phasef_phasecong_entropy_WL3_N5</t>
+  </si>
+  <si>
+    <t>tf_Gabor_kurtosis_F0.05_A0.0</t>
+  </si>
+  <si>
+    <t>tf_GLRLM_LongRunEmphasis</t>
+  </si>
+  <si>
+    <t>sf_shape_MajorAxisLength</t>
+  </si>
+  <si>
+    <t>logf_mean_sigma5</t>
+  </si>
+  <si>
+    <t>sf_shape_Elongation</t>
+  </si>
+  <si>
+    <t>tf_Gabor_quartile_range_F0.05_A0.79</t>
+  </si>
+  <si>
+    <t>sf_shape_Maximum3DDiameter</t>
+  </si>
+  <si>
+    <t>tf_Gabor_range_F0.05_A0.79</t>
+  </si>
+  <si>
+    <t>tf_NGTDM_Busyness</t>
+  </si>
+  <si>
+    <t>tf_Gabor_std_F0.2_A1.57</t>
+  </si>
+  <si>
+    <t>tf_Gabor_energy_F0.5_A2.36</t>
+  </si>
+  <si>
+    <t>tf_LBP_quartile_range_R3_P12</t>
+  </si>
+  <si>
+    <t>vf_Frangi_inner_kurtosis_SR(1.0, 10.0)_SS2.0</t>
+  </si>
+  <si>
+    <t>of_COM_Index_x</t>
+  </si>
+  <si>
+    <t>vf_Frangi_edge_skewness_SR(1.0, 10.0)_SS2.0</t>
+  </si>
+  <si>
+    <t>vf_Frangi_full_skewness_SR(1.0, 10.0)_SS2.0</t>
+  </si>
+  <si>
+    <t>tf_LBP_skewness_R3_P12</t>
+  </si>
+  <si>
+    <t>phasef_phasecong_mean_WL3_N5</t>
+  </si>
+  <si>
+    <t>vf_Frangi_edge_quartile_range_SR(1.0, 10.0)_SS2.0</t>
+  </si>
+  <si>
+    <t>vf_Frangi_full_quartile_range_SR(1.0, 10.0)_SS2.0</t>
+  </si>
+  <si>
+    <t>phasef_phasecong_std_WL3_N5</t>
+  </si>
+  <si>
+    <t>phasef_phasecong_max_WL3_N5</t>
+  </si>
+  <si>
+    <t>phasef_phasecong_range_WL3_N5</t>
+  </si>
+  <si>
+    <t>tf_LBP_mean_R3_P12</t>
+  </si>
+  <si>
+    <t>vf_Frangi_edge_max_SR(1.0, 10.0)_SS2.0</t>
+  </si>
+  <si>
+    <t>vf_Frangi_full_max_SR(1.0, 10.0)_SS2.0</t>
+  </si>
+  <si>
+    <t>vf_Frangi_edge_std_SR(1.0, 10.0)_SS2.0</t>
+  </si>
+  <si>
+    <t>vf_Frangi_full_std_SR(1.0, 10.0)_SS2.0</t>
+  </si>
+  <si>
+    <t>tf_GLSZM_SizeZoneNonUniformity</t>
+  </si>
+  <si>
+    <t>tf_Gabor_mean_F0.05_A0.79</t>
+  </si>
+  <si>
+    <t>hf_peak</t>
+  </si>
+  <si>
+    <t>phasef_phasesym_kurtosis_WL3_N5</t>
+  </si>
+  <si>
+    <t>vf_Frangi_edge_range_SR(1.0, 10.0)_SS2.0</t>
+  </si>
+  <si>
+    <t>vf_Frangi_full_range_SR(1.0, 10.0)_SS2.0</t>
+  </si>
+  <si>
+    <t>phasef_monogenic_kurtosis_WL3_N5</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_homogeneityd1.0A0.79mean</t>
+  </si>
+  <si>
+    <t>tf_GLCM_homogeneityd1.0A1.57</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_correlationd1.0A0.79mean</t>
+  </si>
+  <si>
+    <t>vf_Frangi_edge_peak_position_SR(1.0, 10.0)_SS2.0</t>
+  </si>
+  <si>
+    <t>vf_Frangi_full_peak_position_SR(1.0, 10.0)_SS2.0</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_ASMd1.0A2.36std</t>
+  </si>
+  <si>
+    <t>tf_Gabor_kurtosis_F0.05_A2.36</t>
+  </si>
+  <si>
+    <t>tf_Gabor_energy_F0.5_A1.57</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_ASMd3.0A2.36mean</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_ASMd1.0A0.79mean</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_ASMd1.0A0.79std</t>
+  </si>
+  <si>
+    <t>logf_skewness_sigma5</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_ASMd1.0A0.0mean</t>
+  </si>
+  <si>
+    <t>tf_Gabor_min_F0.05_A2.36</t>
+  </si>
+  <si>
+    <t>tf_GLDM_DependenceNonUniformityNormalized</t>
+  </si>
+  <si>
+    <t>logf_peak_sigma10</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_ASMd3.0A1.57std</t>
+  </si>
+  <si>
+    <t>tf_LBP_kurtosis_R3_P12</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_ASMd1.0A1.57mean</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_ASMd3.0A0.79mean</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_ASMd3.0A2.36std</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_ASMd3.0A0.79std</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_ASMd3.0A0.0std</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_ASMd1.0A0.0std</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_correlationd1.0A0.0mean</t>
+  </si>
+  <si>
+    <t>logf_median_sigma10</t>
+  </si>
+  <si>
+    <t>tf_GLCM_correlationd1.0A1.57</t>
+  </si>
+  <si>
+    <t>tf_Gabor_peak_position_F0.05_A1.57</t>
+  </si>
+  <si>
+    <t>tf_Gabor_min_F0.05_A1.57</t>
+  </si>
+  <si>
+    <t>tf_GLDM_SmallDependenceLowGrayLevelEmphasis</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_ASMd1.0A1.57std</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_ASMd1.0A2.36mean</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_homogeneityd1.0A0.0mean</t>
+  </si>
+  <si>
+    <t>tf_GLCM_homogeneityd1.0A0.0</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_ASMd3.0A0.0mean</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_ASMd3.0A1.57mean</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_homogeneityd1.0A0.79std</t>
+  </si>
+  <si>
+    <t>tf_GLCM_homogeneityd1.0A2.36</t>
+  </si>
+  <si>
+    <t>tf_GLCM_correlationd1.0A0.0</t>
+  </si>
+  <si>
+    <t>phasef_phasesym_energy_WL3_N5</t>
+  </si>
+  <si>
+    <t>tf_LBP_skewness_R8_P24</t>
+  </si>
+  <si>
+    <t>tf_Gabor_quartile_range_F0.05_A2.36</t>
+  </si>
+  <si>
+    <t>tf_Gabor_mean_F0.5_A0.0</t>
+  </si>
+  <si>
+    <t>tf_GLCM_homogeneityd1.0A0.79</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_homogeneityd1.0A0.0std</t>
+  </si>
+  <si>
+    <t>tf_Gabor_quartile_range_F0.05_A0.0</t>
+  </si>
+  <si>
+    <t>tf_GLSZM_ZonePercentage</t>
+  </si>
+  <si>
+    <t>phasef_monogenic_range_WL3_N5</t>
+  </si>
+  <si>
+    <t>tf_Gabor_skewness_F0.05_A0.0</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_energyd1.0A0.79mean</t>
+  </si>
+  <si>
+    <t>phasef_monogenic_max_WL3_N5</t>
+  </si>
+  <si>
+    <t>tf_Gabor_median_F0.05_A2.36</t>
+  </si>
+  <si>
+    <t>tf_Gabor_mean_F0.2_A0.79</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_energyd1.0A0.79std</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_correlationd1.0A0.79std</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_correlationd1.0A0.0std</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_energyd1.0A2.36std</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_energyd1.0A0.0mean</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_correlationd3.0A1.57std</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_dissimilarityd1.0A0.79mean</t>
+  </si>
+  <si>
+    <t>tf_GLCM_dissimilarityd1.0A1.57</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_energyd1.0A0.0std</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_energyd1.0A1.57mean</t>
+  </si>
+  <si>
+    <t>tf_LBP_mean_R8_P24</t>
+  </si>
+  <si>
+    <t>tf_GLCM_homogeneityd3.0A1.57</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_homogeneityd1.0A2.36mean</t>
+  </si>
+  <si>
+    <t>tf_GLRLM_ShortRunHighGrayLevelEmphasis</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_energyd1.0A2.36mean</t>
+  </si>
+  <si>
+    <t>tf_GLSZM_LargeAreaLowGrayLevelEmphasis</t>
+  </si>
+  <si>
+    <t>tf_GLDM_DependenceEntropy</t>
+  </si>
+  <si>
+    <t>sf_prax_avg_2D</t>
+  </si>
+  <si>
+    <t>tf_LBP_std_R15_P36</t>
+  </si>
+  <si>
+    <t>hf_energy</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_dissimilarityd1.0A0.0mean</t>
+  </si>
+  <si>
+    <t>tf_GLCM_dissimilarityd1.0A0.0</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_energyd1.0A1.57std</t>
+  </si>
+  <si>
+    <t>tf_GLCM_homogeneityd3.0A2.36</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_homogeneityd1.0A2.36std</t>
+  </si>
+  <si>
+    <t>tf_Gabor_energy_F0.5_A0.0</t>
+  </si>
+  <si>
+    <t>tf_GLCM_correlationd1.0A2.36</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_homogeneityd1.0A1.57mean</t>
+  </si>
+  <si>
+    <t>tf_GLCM_homogeneityd3.0A0.0</t>
+  </si>
+  <si>
+    <t>tf_LBP_skewness_R15_P36</t>
+  </si>
+  <si>
+    <t>vf_Frangi_edge_kurtosis_SR(1.0, 10.0)_SS2.0</t>
+  </si>
+  <si>
+    <t>vf_Frangi_full_kurtosis_SR(1.0, 10.0)_SS2.0</t>
+  </si>
+  <si>
+    <t>tf_Gabor_skewness_F0.2_A2.36</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_homogeneityd1.0A1.57std</t>
+  </si>
+  <si>
+    <t>tf_GLCM_homogeneityd3.0A0.79</t>
+  </si>
+  <si>
+    <t>tf_Gabor_skewness_F0.05_A2.36</t>
+  </si>
+  <si>
+    <t>tf_Gabor_mean_F0.2_A0.0</t>
+  </si>
+  <si>
+    <t>tf_GLCM_correlationd1.0A0.79</t>
+  </si>
+  <si>
+    <t>logf_peak_position_sigma1</t>
+  </si>
+  <si>
+    <t>sf_rad_dist_std_2D</t>
+  </si>
+  <si>
+    <t>sf_cvar_avg_2D</t>
+  </si>
+  <si>
+    <t>hf_peak_position</t>
+  </si>
+  <si>
+    <t>tf_LBP_kurtosis_R8_P24</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_energyd3.0A1.57std</t>
+  </si>
+  <si>
+    <t>tf_Gabor_std_F0.05_A2.36</t>
+  </si>
+  <si>
+    <t>tf_Gabor_mean_F0.2_A2.36</t>
+  </si>
+  <si>
+    <t>tf_LBP_median_R3_P12</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_energyd3.0A2.36mean</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_correlationd3.0A0.0std</t>
+  </si>
+  <si>
+    <t>tf_Gabor_median_F0.2_A0.79</t>
+  </si>
+  <si>
+    <t>tf_Gabor_peak_F0.2_A0.79</t>
+  </si>
+  <si>
+    <t>tf_Gabor_mean_F0.05_A0.0</t>
+  </si>
+  <si>
+    <t>tf_LBP_std_R8_P24</t>
+  </si>
+  <si>
+    <t>tf_GLSZM_LargeAreaHighGrayLevelEmphasis</t>
+  </si>
+  <si>
+    <t>sf_shape_Sphericity</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_correlationd3.0A0.79mean</t>
+  </si>
+  <si>
+    <t>tf_GLCM_dissimilarityd1.0A2.36</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_dissimilarityd1.0A0.79std</t>
+  </si>
+  <si>
+    <t>tf_GLDM_LargeDependenceEmphasis</t>
+  </si>
+  <si>
+    <t>tf_GLRLM_HighGrayLevelRunEmphasis</t>
+  </si>
+  <si>
+    <t>tf_Gabor_skewness_F0.05_A0.79</t>
+  </si>
+  <si>
+    <t>tf_GLDM_HighGrayLevelEmphasis</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_energyd3.0A2.36std</t>
+  </si>
+  <si>
+    <t>tf_LBP_mean_R15_P36</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_correlationd3.0A2.36std</t>
+  </si>
+  <si>
+    <t>tf_GLCM_energyd1.0A1.57</t>
+  </si>
+  <si>
+    <t>tf_Gabor_median_F0.2_A0.0</t>
+  </si>
+  <si>
+    <t>tf_Gabor_peak_F0.2_A0.0</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_homogeneityd3.0A2.36mean</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_energyd3.0A0.79mean</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_energyd3.0A0.0std</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_homogeneityd3.0A2.36std</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_energyd3.0A1.57mean</t>
+  </si>
+  <si>
+    <t>tf_GLRLM_ShortRunEmphasis</t>
+  </si>
+  <si>
+    <t>tf_Gabor_mean_F0.5_A0.79</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_energyd3.0A0.79std</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_dissimilarityd1.0A0.0std</t>
+  </si>
+  <si>
+    <t>tf_GLCM_dissimilarityd1.0A0.79</t>
+  </si>
+  <si>
+    <t>tf_GLDM_LargeDependenceLowGrayLevelEmphasis</t>
+  </si>
+  <si>
+    <t>tf_GLRLM_RunLengthNonUniformityNormalized</t>
+  </si>
+  <si>
+    <t>tf_GLCM_contrastd1.0A1.57</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_contrastd1.0A0.79mean</t>
+  </si>
+  <si>
+    <t>tf_GLSZM_SmallAreaHighGrayLevelEmphasis</t>
+  </si>
+  <si>
+    <t>tf_LBP_min_R8_P24</t>
+  </si>
+  <si>
+    <t>tf_LBP_range_R8_P24</t>
+  </si>
+  <si>
+    <t>tf_Gabor_peak_position_F0.05_A0.0</t>
+  </si>
+  <si>
+    <t>sf_solidity_avg_2D</t>
+  </si>
+  <si>
+    <t>logf_median_sigma1</t>
+  </si>
+  <si>
+    <t>tf_GLRLM_RunPercentage</t>
+  </si>
+  <si>
+    <t>tf_GLCM_energyd1.0A0.0</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_correlationd3.0A2.36mean</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_homogeneityd3.0A1.57mean</t>
+  </si>
+  <si>
+    <t>tf_Gabor_mean_F0.05_A1.57</t>
+  </si>
+  <si>
+    <t>phasef_monogenic_min_WL3_N5</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_contrastd1.0A0.0mean</t>
+  </si>
+  <si>
+    <t>tf_GLCM_contrastd1.0A0.0</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_correlationd3.0A0.79std</t>
+  </si>
+  <si>
+    <t>tf_Gabor_kurtosis_F0.2_A2.36</t>
+  </si>
+  <si>
+    <t>tf_Gabor_mean_F0.2_A1.57</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_homogeneityd3.0A1.57std</t>
+  </si>
+  <si>
+    <t>tf_GLRLM_RunEntropy</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_energyd3.0A0.0mean</t>
+  </si>
+  <si>
+    <t>tf_Gabor_skewness_F0.2_A0.0</t>
+  </si>
+  <si>
+    <t>tf_GLCM_energyd1.0A2.36</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_correlationd3.0A0.0mean</t>
+  </si>
+  <si>
+    <t>tf_Gabor_peak_position_F0.05_A2.36</t>
+  </si>
+  <si>
+    <t>tf_Gabor_range_F0.05_A2.36</t>
+  </si>
+  <si>
+    <t>tf_LBP_quartile_range_R8_P24</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_correlationd1.0A2.36mean</t>
+  </si>
+  <si>
+    <t>tf_GLCM_energyd1.0A0.79</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_homogeneityd3.0A0.79std</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_homogeneityd3.0A0.79mean</t>
+  </si>
+  <si>
+    <t>sf_convexity_avg_2D</t>
+  </si>
+  <si>
+    <t>tf_LBP_kurtosis_R15_P36</t>
+  </si>
+  <si>
+    <t>tf_Gabor_mean_F0.5_A2.36</t>
+  </si>
+  <si>
+    <t>tf_GLCM_ASMd1.0A1.57</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_homogeneityd3.0A0.0std</t>
+  </si>
+  <si>
+    <t>tf_NGTDM_Strength</t>
+  </si>
+  <si>
+    <t>tf_Gabor_skewness_F0.5_A0.0</t>
+  </si>
+  <si>
+    <t>tf_Gabor_median_F0.05_A1.57</t>
+  </si>
+  <si>
+    <t>tf_GLRLM_LongRunLowGrayLevelEmphasis</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_correlationd1.0A2.36std</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_contrastd3.0A1.57std</t>
+  </si>
+  <si>
+    <t>tf_GLCM_energyd3.0A2.36</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_correlationd1.0A1.57std</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_correlationd1.0A1.57mean</t>
+  </si>
+  <si>
+    <t>tf_GLRLM_GrayLevelNonUniformityNormalized</t>
+  </si>
+  <si>
+    <t>tf_GLCM_energyd3.0A1.57</t>
+  </si>
+  <si>
+    <t>sf_evar_avg_2D</t>
+  </si>
+  <si>
+    <t>tf_GLCM_ASMd1.0A0.0</t>
+  </si>
+  <si>
+    <t>tf_Gabor_peak_F0.05_A1.57</t>
+  </si>
+  <si>
+    <t>tf_GLCM_energyd3.0A0.79</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_contrastd3.0A2.36mean</t>
+  </si>
+  <si>
+    <t>tf_GLDM_LowGrayLevelEmphasis</t>
+  </si>
+  <si>
+    <t>tf_GLCM_ASMd1.0A2.36</t>
+  </si>
+  <si>
+    <t>tf_GLSZM_HighGrayLevelZoneEmphasis</t>
+  </si>
+  <si>
+    <t>tf_NGTDM_Complexity</t>
+  </si>
+  <si>
+    <t>tf_GLCM_energyd3.0A0.0</t>
+  </si>
+  <si>
+    <t>tf_Gabor_energy_F0.5_A0.79</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_homogeneityd3.0A0.0mean</t>
+  </si>
+  <si>
+    <t>tf_Gabor_median_F0.2_A2.36</t>
+  </si>
+  <si>
+    <t>tf_Gabor_peak_F0.2_A2.36</t>
+  </si>
+  <si>
+    <t>tf_Gabor_mean_F0.5_A1.57</t>
+  </si>
+  <si>
+    <t>sf_compactness_avg_2D</t>
+  </si>
+  <si>
+    <t>of_theta_z</t>
+  </si>
+  <si>
+    <t>tf_GLCM_ASMd1.0A0.79</t>
+  </si>
+  <si>
+    <t>tf_GLCM_correlationd3.0A1.57</t>
+  </si>
+  <si>
+    <t>phasef_phasecong_skewness_WL3_N5</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_contrastd1.0A0.79std</t>
+  </si>
+  <si>
+    <t>tf_GLCM_contrastd1.0A2.36</t>
+  </si>
+  <si>
+    <t>of_theta_x</t>
+  </si>
+  <si>
+    <t>tf_Gabor_peak_position_F0.5_A2.36</t>
+  </si>
+  <si>
+    <t>tf_Gabor_median_F0.5_A0.0</t>
+  </si>
+  <si>
+    <t>tf_Gabor_peak_F0.5_A0.0</t>
+  </si>
+  <si>
+    <t>tf_GLDM_DependenceVariance</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_contrastd3.0A0.0std</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_correlationd3.0A1.57mean</t>
+  </si>
+  <si>
+    <t>tf_GLCM_correlationd3.0A2.36</t>
+  </si>
+  <si>
+    <t>tf_GLCM_ASMd3.0A2.36</t>
+  </si>
+  <si>
+    <t>tf_GLCM_ASMd3.0A1.57</t>
+  </si>
+  <si>
+    <t>tf_GLCM_ASMd3.0A0.79</t>
+  </si>
+  <si>
+    <t>tf_GLCM_correlationd3.0A0.0</t>
+  </si>
+  <si>
+    <t>phasef_phasecong_quartile_range_WL3_N5</t>
+  </si>
+  <si>
+    <t>tf_GLSZM_GrayLevelNonUniformityNormalized</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_contrastd3.0A2.36std</t>
+  </si>
+  <si>
+    <t>tf_GLSZM_ZoneEntropy</t>
+  </si>
+  <si>
+    <t>tf_GLCM_contrastd1.0A0.79</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_contrastd1.0A0.0std</t>
+  </si>
+  <si>
+    <t>tf_GLCM_ASMd3.0A0.0</t>
+  </si>
+  <si>
+    <t>sf_solidity_std_2D</t>
+  </si>
+  <si>
+    <t>tf_GLCM_correlationd3.0A0.79</t>
+  </si>
+  <si>
+    <t>tf_GLRLM_GrayLevelVariance</t>
+  </si>
+  <si>
+    <t>tf_GLDM_GrayLevelVariance</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_contrastd3.0A1.57mean</t>
+  </si>
+  <si>
+    <t>tf_GLSZM_GrayLevelVariance</t>
+  </si>
+  <si>
+    <t>tf_GLCM_dissimilarityd3.0A2.36</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_dissimilarityd1.0A2.36std</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_dissimilarityd3.0A2.36mean</t>
+  </si>
+  <si>
+    <t>tf_Gabor_max_F0.05_A2.36</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_dissimilarityd1.0A2.36mean</t>
+  </si>
+  <si>
+    <t>tf_GLCM_dissimilarityd3.0A1.57</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_contrastd3.0A0.79mean</t>
+  </si>
+  <si>
+    <t>logf_median_sigma5</t>
+  </si>
+  <si>
+    <t>logf_peak_sigma5</t>
+  </si>
+  <si>
+    <t>sf_convexity_std_2D</t>
+  </si>
+  <si>
+    <t>tf_GLSZM_LowGrayLevelZoneEmphasis</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_dissimilarityd3.0A0.0std</t>
+  </si>
+  <si>
+    <t>phasef_monogenic_peak_WL3_N5</t>
+  </si>
+  <si>
+    <t>phasef_monogenic_peak_position_WL3_N5</t>
+  </si>
+  <si>
+    <t>tf_GLSZM_SmallAreaLowGrayLevelEmphasis</t>
+  </si>
+  <si>
+    <t>tf_GLRLM_LowGrayLevelRunEmphasis</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_dissimilarityd3.0A0.79mean</t>
+  </si>
+  <si>
+    <t>sf_roughness_avg_2D</t>
+  </si>
+  <si>
+    <t>tf_GLCM_dissimilarityd3.0A0.79</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_dissimilarityd1.0A1.57std</t>
+  </si>
+  <si>
+    <t>tf_GLCM_dissimilarityd3.0A0.0</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_dissimilarityd1.0A1.57mean</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_dissimilarityd3.0A1.57std</t>
+  </si>
+  <si>
+    <t>tf_Gabor_median_F0.5_A2.36</t>
+  </si>
+  <si>
+    <t>tf_Gabor_peak_F0.5_A2.36</t>
+  </si>
+  <si>
+    <t>tf_NGTDM_Contrast</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_dissimilarityd3.0A2.36std</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_contrastd3.0A0.79std</t>
+  </si>
+  <si>
+    <t>tf_Gabor_peak_position_F0.5_A1.57</t>
+  </si>
+  <si>
+    <t>tf_Gabor_kurtosis_F0.5_A0.0</t>
+  </si>
+  <si>
+    <t>sf_cvar_std_2D</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_contrastd3.0A0.0mean</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_dissimilarityd3.0A1.57mean</t>
+  </si>
+  <si>
+    <t>tf_GLRLM_ShortRunLowGrayLevelEmphasis</t>
+  </si>
+  <si>
+    <t>tf_Gabor_min_F0.05_A0.79</t>
+  </si>
+  <si>
+    <t>tf_Gabor_peak_position_F0.2_A2.36</t>
+  </si>
+  <si>
+    <t>sf_roughness_std_2D</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_dissimilarityd3.0A0.0mean</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_dissimilarityd3.0A0.79std</t>
+  </si>
+  <si>
+    <t>tf_Gabor_peak_position_F0.5_A0.79</t>
+  </si>
+  <si>
+    <t>tf_GLDM_LargeDependenceHighGrayLevelEmphasis</t>
+  </si>
+  <si>
+    <t>tf_Gabor_peak_position_F0.5_A0.0</t>
+  </si>
+  <si>
+    <t>tf_Gabor_skewness_F0.5_A1.57</t>
+  </si>
+  <si>
+    <t>tf_Gabor_kurtosis_F0.2_A1.57</t>
+  </si>
+  <si>
+    <t>phasef_phasecong_kurtosis_WL3_N5</t>
+  </si>
+  <si>
+    <t>tf_GLRLM_LongRunHighGrayLevelEmphasis</t>
+  </si>
+  <si>
+    <t>logf_peak_sigma1</t>
+  </si>
+  <si>
+    <t>tf_Gabor_skewness_F0.5_A0.79</t>
+  </si>
+  <si>
+    <t>tf_Gabor_median_F0.05_A0.79</t>
+  </si>
+  <si>
+    <t>tf_Gabor_median_F0.2_A1.57</t>
+  </si>
+  <si>
+    <t>tf_Gabor_peak_F0.2_A1.57</t>
+  </si>
+  <si>
+    <t>tf_GLCM_contrastd3.0A2.36</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_contrastd1.0A2.36std</t>
+  </si>
+  <si>
+    <t>tf_Gabor_peak_position_F0.05_A0.79</t>
+  </si>
+  <si>
+    <t>tf_Gabor_skewness_F0.2_A0.79</t>
+  </si>
+  <si>
+    <t>sf_compactness_std_2D</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_contrastd1.0A2.36mean</t>
+  </si>
+  <si>
+    <t>tf_GLCM_contrastd3.0A1.57</t>
+  </si>
+  <si>
+    <t>tf_Gabor_peak_position_F0.2_A0.0</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_contrastd1.0A1.57std</t>
+  </si>
+  <si>
+    <t>tf_GLCM_contrastd3.0A0.79</t>
+  </si>
+  <si>
+    <t>tf_LBP_quartile_range_R15_P36</t>
+  </si>
+  <si>
+    <t>tf_GLCMMS_contrastd1.0A1.57mean</t>
+  </si>
+  <si>
+    <t>tf_GLCM_contrastd3.0A0.0</t>
+  </si>
+  <si>
+    <t>sf_evar_std_2D</t>
+  </si>
+  <si>
+    <t>tf_Gabor_median_F0.5_A0.79</t>
+  </si>
+  <si>
+    <t>tf_Gabor_peak_F0.5_A0.79</t>
+  </si>
+  <si>
+    <t>tf_Gabor_peak_F0.05_A0.79</t>
+  </si>
+  <si>
+    <t>of_theta_y</t>
+  </si>
+  <si>
+    <t>tf_Gabor_kurtosis_F0.5_A1.57</t>
+  </si>
+  <si>
+    <t>tf_Gabor_median_F0.05_A0.0</t>
+  </si>
+  <si>
+    <t>tf_Gabor_median_F0.5_A1.57</t>
+  </si>
+  <si>
+    <t>tf_Gabor_peak_F0.5_A1.57</t>
+  </si>
+  <si>
+    <t>tf_Gabor_kurtosis_F0.5_A2.36</t>
+  </si>
+  <si>
+    <t>sf_prax_std_2D</t>
+  </si>
+  <si>
+    <t>sf_area_min_2D</t>
+  </si>
+  <si>
+    <t>tf_Gabor_peak_position_F0.2_A1.57</t>
+  </si>
+  <si>
+    <t>tf_LBP_min_R15_P36</t>
+  </si>
+  <si>
+    <t>tf_LBP_range_R15_P36</t>
+  </si>
+  <si>
+    <t>tf_Gabor_kurtosis_F0.5_A0.79</t>
+  </si>
+  <si>
+    <t>tf_Gabor_skewness_F0.2_A1.57</t>
+  </si>
+  <si>
+    <t>phasef_phasesym_median_WL3_N5</t>
+  </si>
+  <si>
+    <t>tf_Gabor_peak_F0.05_A2.36</t>
+  </si>
+  <si>
+    <t>tf_Gabor_skewness_F0.5_A2.36</t>
+  </si>
+  <si>
+    <t>tf_Gabor_peak_F0.05_A0.0</t>
+  </si>
+  <si>
+    <t>tf_Gabor_peak_position_F0.2_A0.79</t>
+  </si>
+  <si>
+    <t>tf_LBP_median_R15_P36</t>
+  </si>
+  <si>
+    <t>phasef_phasecong_median_WL3_N5</t>
+  </si>
+  <si>
+    <t>phasef_phasecong_min_WL3_N5</t>
+  </si>
+  <si>
+    <t>phasef_phasecong_peak_WL3_N5</t>
+  </si>
+  <si>
+    <t>phasef_phasecong_peak_position_WL3_N5</t>
+  </si>
+  <si>
+    <t>phasef_phasesym_min_WL3_N5</t>
+  </si>
+  <si>
+    <t>phasef_phasesym_peak_WL3_N5</t>
+  </si>
+  <si>
+    <t>phasef_phasesym_peak_position_WL3_N5</t>
+  </si>
+  <si>
+    <t>tf_LBP_max_R15_P36</t>
+  </si>
+  <si>
+    <t>tf_LBP_max_R3_P12</t>
+  </si>
+  <si>
+    <t>tf_LBP_max_R8_P24</t>
+  </si>
+  <si>
+    <t>tf_LBP_median_R8_P24</t>
+  </si>
+  <si>
+    <t>tf_LBP_min_R3_P12</t>
+  </si>
+  <si>
+    <t>tf_LBP_peak_R15_P36</t>
+  </si>
+  <si>
+    <t>tf_LBP_peak_R8_P24</t>
+  </si>
+  <si>
+    <t>tf_LBP_peak_position_R15_P36</t>
+  </si>
+  <si>
+    <t>tf_LBP_peak_position_R3_P12</t>
+  </si>
+  <si>
+    <t>tf_LBP_peak_position_R8_P24</t>
+  </si>
+  <si>
+    <t>tf_LBP_range_R3_P12</t>
   </si>
 </sst>
 </file>
@@ -2086,18 +2086,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B565"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A304" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:B328"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="62.88671875"/>
+    <col min="1" max="1" width="62.85546875"/>
     <col min="2" max="2" width="21" style="3"/>
-    <col min="3" max="1025" width="11.5546875"/>
+    <col min="3" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2113,4454 +2113,4454 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>495</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3">
         <v>0.99994068240187595</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3">
         <v>0.99965026180115202</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3">
         <v>0.99947085119970802</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="3">
         <v>0.99936785586579002</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="3">
         <v>0.99928111212205695</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="3">
         <v>0.999237897016235</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="3">
         <v>0.99909795016952296</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="3">
         <v>0.99898956464173105</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="3">
         <v>0.99887966885982504</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="3">
         <v>0.99883131275816905</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="3">
         <v>0.998678363905663</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="3">
         <v>0.99857299121156495</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="3">
         <v>0.99800755888099202</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="3">
         <v>0.99793869554043702</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>496</v>
+        <v>17</v>
       </c>
       <c r="B17" s="3">
         <v>0.99780385426072005</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B18" s="3">
         <v>0.99709819614841699</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B19" s="3">
         <v>0.99658436801530403</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B20" s="3">
         <v>0.99626970134911197</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>497</v>
+        <v>21</v>
       </c>
       <c r="B21" s="3">
         <v>0.99616445149912602</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B22" s="3">
         <v>0.99599486210119903</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B23" s="3">
         <v>0.99525982439105798</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B24" s="3">
         <v>0.995254817454574</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B25" s="3">
         <v>0.99507221750212405</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B26" s="3">
         <v>0.99501349313790699</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B27" s="3">
         <v>0.99465691165458603</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B28" s="3">
         <v>0.99441891638455204</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B29" s="3">
         <v>0.99340354388917995</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>498</v>
+        <v>30</v>
       </c>
       <c r="B30" s="3">
         <v>0.99285865787526995</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B31" s="3">
         <v>0.99285582129752903</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>499</v>
+        <v>32</v>
       </c>
       <c r="B32" s="3">
         <v>0.99285582129752903</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B33" s="3">
         <v>0.99247231499870703</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B34" s="3">
         <v>0.99082823510385998</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B35" s="3">
         <v>0.99002361303819597</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B36" s="3">
         <v>0.98997160542686002</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B37" s="3">
         <v>0.98976555300949698</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B38" s="3">
         <v>0.98899509971601296</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B39" s="3">
         <v>0.98874142609793303</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B40" s="3">
         <v>0.98874142609793303</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B41" s="3">
         <v>0.98818478853510405</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B42" s="3">
         <v>0.98778997272482005</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B43" s="3">
         <v>0.98739063047203102</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B44" s="3">
         <v>0.98644589113135195</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B45" s="3">
         <v>0.98599149874111203</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3">
         <v>0.98577378673482996</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B47" s="3">
         <v>0.98535564853556501</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>500</v>
+        <v>48</v>
       </c>
       <c r="B48" s="3">
         <v>0.98510612116441898</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B49" s="3">
         <v>0.98500831457090599</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B50" s="3">
         <v>0.98496524391514795</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B51" s="3">
         <v>0.98485722218206995</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B52" s="3">
         <v>0.98473202541756499</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B53" s="3">
         <v>0.98471335257884196</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>501</v>
+        <v>54</v>
       </c>
       <c r="B54" s="3">
         <v>0.98365770805407504</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B55" s="3">
         <v>0.983304415797984</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>502</v>
+        <v>56</v>
       </c>
       <c r="B56" s="3">
         <v>0.98297075125098698</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>503</v>
+        <v>57</v>
       </c>
       <c r="B57" s="3">
         <v>0.98294063431665202</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B58" s="3">
         <v>0.98271026222076097</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B59" s="3">
         <v>0.98246221246544496</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B60" s="3">
         <v>0.98238394110648697</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="B61" s="3">
         <v>0.982206979244586</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B62" s="3">
         <v>0.98105503837987895</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B63" s="3">
         <v>0.980380026136354</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B64" s="3">
         <v>0.980276177854282</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B65" s="3">
         <v>0.97950300626838904</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B66" s="3">
         <v>0.97896236701489603</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B67" s="3">
         <v>0.97874026668780101</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B68" s="3">
         <v>0.97860462286179295</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B69" s="3">
         <v>0.978381885096685</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B70" s="3">
         <v>0.97809667673716005</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B71" s="3">
         <v>0.97794628858157395</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B72" s="3">
         <v>0.97749796724712301</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B73" s="3">
         <v>0.97749796724712301</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="B74" s="3">
         <v>0.97615305349410797</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>504</v>
+        <v>75</v>
       </c>
       <c r="B75" s="3">
         <v>0.97550699868984603</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>505</v>
+        <v>76</v>
       </c>
       <c r="B76" s="3">
         <v>0.975081208217216</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>506</v>
+        <v>77</v>
       </c>
       <c r="B77" s="3">
         <v>0.97498652295647903</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B78" s="3">
         <v>0.97496141806675996</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="B79" s="3">
         <v>0.97384310403390795</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B80" s="3">
         <v>0.97309816063300403</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B81" s="3">
         <v>0.97248386194065795</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B82" s="3">
         <v>0.97247457179813601</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B83" s="3">
         <v>0.97184466019417504</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B84" s="3">
         <v>0.97162426614481401</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B85" s="3">
         <v>0.96924711641958305</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B86" s="3">
         <v>0.96923822023347395</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B87" s="3">
         <v>0.96843463769604399</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B88" s="3">
         <v>0.96843463769604399</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="B89" s="3">
         <v>0.96840965610344398</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B90" s="3">
         <v>0.96747209996403505</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B91" s="3">
         <v>0.96732896353953302</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B92" s="3">
         <v>0.96527205903217606</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="B93" s="3">
         <v>0.96473604906288801</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>507</v>
+        <v>94</v>
       </c>
       <c r="B94" s="3">
         <v>0.96435295363226003</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="B95" s="3">
         <v>0.96407472885603196</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>508</v>
+        <v>96</v>
       </c>
       <c r="B96" s="3">
         <v>0.96406636227095199</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B97" s="3">
         <v>0.96381031613976698</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="B98" s="3">
         <v>0.96354456523191701</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B99" s="3">
         <v>0.96352865045216796</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="B100" s="3">
         <v>0.96292522089076704</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="B101" s="3">
         <v>0.96265642946958696</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="B102" s="3">
         <v>0.96264735222414799</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B103" s="3">
         <v>0.961704557621614</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="B104" s="3">
         <v>0.96138859960044798</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B105" s="3">
         <v>0.96042700434222705</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B106" s="3">
         <v>0.95917764860982702</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="B107" s="3">
         <v>0.95815668275467403</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="B108" s="3">
         <v>0.95683635030257197</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>509</v>
+        <v>109</v>
       </c>
       <c r="B109" s="3">
         <v>0.95651008064206999</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="B110" s="3">
         <v>0.95566651439168004</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="B111" s="3">
         <v>0.95554420030659204</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="B112" s="3">
         <v>0.95489290855942599</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="B113" s="3">
         <v>0.95412602161877202</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="B114" s="3">
         <v>0.954080488481307</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="B115" s="3">
         <v>0.954080488481307</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="B116" s="3">
         <v>0.95355652417856995</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="B117" s="3">
         <v>0.95355652417856995</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="B118" s="3">
         <v>0.95290032235481603</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="B119" s="3">
         <v>0.95273909059139295</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="B120" s="3">
         <v>0.94982488091966</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="B121" s="3">
         <v>0.949073725311949</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>510</v>
+        <v>122</v>
       </c>
       <c r="B122" s="3">
         <v>0.94862187898986206</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="B123" s="3">
         <v>0.94732104547399998</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B124" s="3">
         <v>0.94656704270567205</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>511</v>
+        <v>125</v>
       </c>
       <c r="B125" s="3">
         <v>0.945209536367147</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="B126" s="3">
         <v>0.94482091874105301</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>512</v>
+        <v>127</v>
       </c>
       <c r="B127" s="3">
         <v>0.94392486749752402</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>513</v>
+        <v>128</v>
       </c>
       <c r="B128" s="3">
         <v>0.94286195715896504</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="B129" s="3">
         <v>0.94259113508540604</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
       <c r="B130" s="3">
         <v>0.94134148374159299</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>514</v>
+        <v>131</v>
       </c>
       <c r="B131" s="3">
         <v>0.94014201409808795</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="B132" s="3">
         <v>0.94004374402448798</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="B133" s="3">
         <v>0.93736070128921001</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="B134" s="3">
         <v>0.93713744886120798</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="B135" s="3">
         <v>0.93698616029913095</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="B136" s="3">
         <v>0.93656200600905204</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="B137" s="3">
         <v>0.93579440052306195</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="B138" s="3">
         <v>0.93455780403531796</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="B139" s="3">
         <v>0.93276938497351802</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>515</v>
+        <v>140</v>
       </c>
       <c r="B140" s="3">
         <v>0.931958304211991</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="B141" s="3">
         <v>0.928957484554364</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>516</v>
+        <v>142</v>
       </c>
       <c r="B142" s="3">
         <v>0.92727217644023296</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="B143" s="3">
         <v>0.92551030681986901</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>517</v>
+        <v>144</v>
       </c>
       <c r="B144" s="3">
         <v>0.92502444004787598</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="B145" s="3">
         <v>0.92350015073861902</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="B146" s="3">
         <v>0.92325980927121698</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="B147" s="3">
         <v>0.92265494115527202</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="B148" s="3">
         <v>0.92194828240298499</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>518</v>
+        <v>149</v>
       </c>
       <c r="B149" s="3">
         <v>0.92183869217660297</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="B150" s="3">
         <v>0.92179906137965295</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="B151" s="3">
         <v>0.92170840554531897</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="B152" s="3">
         <v>0.92151117719178399</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="B153" s="3">
         <v>0.91938484318524605</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="B154" s="3">
         <v>0.91921866747102299</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="B155" s="3">
         <v>0.91858358992935996</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="B156" s="3">
         <v>0.91819965661025305</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>519</v>
+        <v>157</v>
       </c>
       <c r="B157" s="3">
         <v>0.91780549161976899</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="B158" s="3">
         <v>0.912538846956917</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="B159" s="3">
         <v>0.91184028474878298</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="B160" s="3">
         <v>0.91144990749416799</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="B161" s="3">
         <v>0.91095909106839201</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="B162" s="3">
         <v>0.91081898645479598</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>520</v>
+        <v>163</v>
       </c>
       <c r="B163" s="3">
         <v>0.910701596319475</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="B164" s="3">
         <v>0.91031662877070196</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>139</v>
+        <v>165</v>
       </c>
       <c r="B165" s="3">
         <v>0.91020684915226702</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="B166" s="3">
         <v>0.91020441485639803</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="B167" s="3">
         <v>0.91019055957453998</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="B168" s="3">
         <v>0.91016000525575202</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="B169" s="3">
         <v>0.910082919899451</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="B170" s="3">
         <v>0.91007447911710304</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="B171" s="3">
         <v>0.909937768484962</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="B172" s="3">
         <v>0.90989554123937999</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="B173" s="3">
         <v>0.90988180560259901</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="B174" s="3">
         <v>0.90983795645867604</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>521</v>
+        <v>175</v>
       </c>
       <c r="B175" s="3">
         <v>0.90969279853507501</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="B176" s="3">
         <v>0.90945584299732396</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="B177" s="3">
         <v>0.90936372032369595</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="B178" s="3">
         <v>0.90881736760166998</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="B179" s="3">
         <v>0.90868714968648201</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="B180" s="3">
         <v>0.90856496670533604</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>522</v>
+        <v>181</v>
       </c>
       <c r="B181" s="3">
         <v>0.90855678442972199</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="B182" s="3">
         <v>0.90838518218304598</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="B183" s="3">
         <v>0.90821230141716602</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="B184" s="3">
         <v>0.90676699142615602</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="B185" s="3">
         <v>0.90624076729359704</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="B186" s="3">
         <v>0.90624076729359704</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="B187" s="3">
         <v>0.90586637922464097</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="B188" s="3">
         <v>0.90438281375769602</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="B189" s="3">
         <v>0.90195192322378204</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="B190" s="3">
         <v>0.901361505469503</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="B191" s="3">
         <v>0.901361505469503</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="B192" s="3">
         <v>0.90082500913475205</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="B193" s="3">
         <v>0.90045766590388998</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="B194" s="3">
         <v>0.90011585722098097</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="B195" s="3">
         <v>0.89979350012509296</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="B196" s="3">
         <v>0.89816039136752202</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="B197" s="3">
         <v>0.89805597255597602</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="B198" s="3">
         <v>0.89743758370860705</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>523</v>
+        <v>199</v>
       </c>
       <c r="B199" s="3">
         <v>0.894942425806591</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>524</v>
+        <v>200</v>
       </c>
       <c r="B200" s="3">
         <v>0.892831360666544</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="B201" s="3">
         <v>0.891440267292963</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>525</v>
+        <v>202</v>
       </c>
       <c r="B202" s="3">
         <v>0.89107019474367799</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="B203" s="3">
         <v>0.88995369179315698</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>526</v>
+        <v>204</v>
       </c>
       <c r="B204" s="3">
         <v>0.88825732838459903</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>173</v>
+        <v>205</v>
       </c>
       <c r="B205" s="3">
         <v>0.88711907830073</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>527</v>
+        <v>206</v>
       </c>
       <c r="B206" s="3">
         <v>0.88402415116041</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="B207" s="3">
         <v>0.88266394999267594</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>175</v>
+        <v>208</v>
       </c>
       <c r="B208" s="3">
         <v>0.88058349208484299</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>176</v>
+        <v>209</v>
       </c>
       <c r="B209" s="3">
         <v>0.87991718426500998</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="B210" s="3">
         <v>0.879874319164759</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>528</v>
+        <v>211</v>
       </c>
       <c r="B211" s="3">
         <v>0.87985575803899296</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="B212" s="3">
         <v>0.87699245157029704</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
       <c r="B213" s="3">
         <v>0.87699245157029704</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="B214" s="3">
         <v>0.87512282428818</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="B215" s="3">
         <v>0.87299599515784798</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="B216" s="3">
         <v>0.87034122695563698</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="B217" s="3">
         <v>0.87034122695563698</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="B218" s="3">
         <v>0.86993757040808195</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="B219" s="3">
         <v>0.86654743626424202</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="B220" s="3">
         <v>0.86654743626424202</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="B221" s="3">
         <v>0.86650359965759804</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="B222" s="3">
         <v>0.86521175256977301</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="B223" s="3">
         <v>0.86521175256977301</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="B224" s="3">
         <v>0.86487422587836205</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="B225" s="3">
         <v>0.86487422587836205</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>529</v>
+        <v>226</v>
       </c>
       <c r="B226" s="3">
         <v>0.86138373060738305</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="B227" s="3">
         <v>0.86013184071573801</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="B228" s="3">
         <v>0.85976091146595501</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="B229" s="3">
         <v>0.85953441424581001</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="B230" s="3">
         <v>0.85208971912439202</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>196</v>
+        <v>231</v>
       </c>
       <c r="B231" s="3">
         <v>0.85208971912439202</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="B232" s="3">
         <v>0.85143774341744805</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="B233" s="3">
         <v>0.85005464728875602</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="B234" s="3">
         <v>0.85005464728875602</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="B235" s="3">
         <v>0.84621021780836203</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="B236" s="3">
         <v>0.84325893303973498</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="B237" s="3">
         <v>0.84325893303973498</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>203</v>
+        <v>238</v>
       </c>
       <c r="B238" s="3">
         <v>0.84268222308844698</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="B239" s="3">
         <v>0.84167103661444198</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="B240" s="3">
         <v>0.841257691003932</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="B241" s="3">
         <v>0.84095847741569196</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>207</v>
+        <v>242</v>
       </c>
       <c r="B242" s="3">
         <v>0.84087811826831205</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>208</v>
+        <v>243</v>
       </c>
       <c r="B243" s="3">
         <v>0.84084259935879802</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="B244" s="3">
         <v>0.83880858431275895</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="B245" s="3">
         <v>0.83852812801422005</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="B246" s="3">
         <v>0.83769539899453804</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>530</v>
+        <v>247</v>
       </c>
       <c r="B247" s="3">
         <v>0.83757416354202197</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="B248" s="3">
         <v>0.83627945609906096</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="B249" s="3">
         <v>0.83625762542890103</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="B250" s="3">
         <v>0.83624209273820904</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="B251" s="3">
         <v>0.83530145856031301</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>216</v>
+        <v>252</v>
       </c>
       <c r="B252" s="3">
         <v>0.835078978768243</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>217</v>
+        <v>253</v>
       </c>
       <c r="B253" s="3">
         <v>0.83434454774030598</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>218</v>
+        <v>254</v>
       </c>
       <c r="B254" s="3">
         <v>0.83302073459145898</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="B255" s="3">
         <v>0.83095073071303305</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>220</v>
+        <v>256</v>
       </c>
       <c r="B256" s="3">
         <v>0.82913795653484301</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>221</v>
+        <v>257</v>
       </c>
       <c r="B257" s="3">
         <v>0.82770129766569001</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="B258" s="3">
         <v>0.82702436875796903</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>223</v>
+        <v>259</v>
       </c>
       <c r="B259" s="3">
         <v>0.82666213263517296</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>224</v>
+        <v>260</v>
       </c>
       <c r="B260" s="3">
         <v>0.82512916079572096</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="B261" s="3">
         <v>0.82396860624053803</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>531</v>
+        <v>262</v>
       </c>
       <c r="B262" s="3">
         <v>0.82321212966106405</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>226</v>
+        <v>263</v>
       </c>
       <c r="B263" s="3">
         <v>0.822430913825829</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>227</v>
+        <v>264</v>
       </c>
       <c r="B264" s="3">
         <v>0.82205938090059605</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>228</v>
+        <v>265</v>
       </c>
       <c r="B265" s="3">
         <v>0.82144928801335704</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="B266" s="3">
         <v>0.82144928801335704</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>230</v>
+        <v>267</v>
       </c>
       <c r="B267" s="3">
         <v>0.82144107811641098</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>231</v>
+        <v>268</v>
       </c>
       <c r="B268" s="3">
         <v>0.82118028845479096</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>232</v>
+        <v>269</v>
       </c>
       <c r="B269" s="3">
         <v>0.81629454078125496</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="B270" s="3">
         <v>0.81629454078125496</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="B271" s="3">
         <v>0.81574354490845102</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="B272" s="3">
         <v>0.81405141334498499</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="B273" s="3">
         <v>0.81145996613714999</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="B274" s="3">
         <v>0.81009038922707999</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="B275" s="3">
         <v>0.81000222895474305</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="B276" s="3">
         <v>0.80967958278914498</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>240</v>
+        <v>277</v>
       </c>
       <c r="B277" s="3">
         <v>0.80967958278914398</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>241</v>
+        <v>278</v>
       </c>
       <c r="B278" s="3">
         <v>0.80231108155291397</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>532</v>
+        <v>279</v>
       </c>
       <c r="B279" s="3">
         <v>0.79853753410236905</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>242</v>
+        <v>280</v>
       </c>
       <c r="B280" s="3">
         <v>0.798165137614679</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>243</v>
+        <v>281</v>
       </c>
       <c r="B281" s="3">
         <v>0.79678317299308499</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>244</v>
+        <v>282</v>
       </c>
       <c r="B282" s="3">
         <v>0.79660632827275202</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>245</v>
+        <v>283</v>
       </c>
       <c r="B283" s="3">
         <v>0.795053003533569</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>246</v>
+        <v>284</v>
       </c>
       <c r="B284" s="3">
         <v>0.79487291590141496</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>247</v>
+        <v>285</v>
       </c>
       <c r="B285" s="3">
         <v>0.79466656839984795</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="B286" s="3">
         <v>0.79396267404392595</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>249</v>
+        <v>287</v>
       </c>
       <c r="B287" s="3">
         <v>0.792767130397661</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>250</v>
+        <v>288</v>
       </c>
       <c r="B288" s="3">
         <v>0.790906663671337</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="B289" s="3">
         <v>0.79001790613558798</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>252</v>
+        <v>290</v>
       </c>
       <c r="B290" s="3">
         <v>0.79000570907327505</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>253</v>
+        <v>291</v>
       </c>
       <c r="B291" s="3">
         <v>0.78534474222485595</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>254</v>
+        <v>292</v>
       </c>
       <c r="B292" s="3">
         <v>0.78209635572502001</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="B293" s="3">
         <v>0.78209635572502001</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="B294" s="3">
         <v>0.780167705378495</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>257</v>
+        <v>295</v>
       </c>
       <c r="B295" s="3">
         <v>0.77966598355564998</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>258</v>
+        <v>296</v>
       </c>
       <c r="B296" s="3">
         <v>0.77722257112013604</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>259</v>
+        <v>297</v>
       </c>
       <c r="B297" s="3">
         <v>0.77638457850875497</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>260</v>
+        <v>298</v>
       </c>
       <c r="B298" s="3">
         <v>0.77638457850875398</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>533</v>
+        <v>299</v>
       </c>
       <c r="B299" s="3">
         <v>0.77633490810291195</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>261</v>
+        <v>300</v>
       </c>
       <c r="B300" s="3">
         <v>0.77624485193886705</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>534</v>
+        <v>301</v>
       </c>
       <c r="B301" s="3">
         <v>0.77536757231662201</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>535</v>
+        <v>302</v>
       </c>
       <c r="B302" s="3">
         <v>0.775019079192801</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>262</v>
+        <v>303</v>
       </c>
       <c r="B303" s="3">
         <v>0.77276184587105101</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>263</v>
+        <v>304</v>
       </c>
       <c r="B304" s="3">
         <v>0.77062144536616894</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>264</v>
+        <v>305</v>
       </c>
       <c r="B305" s="3">
         <v>0.76929272318251896</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>265</v>
+        <v>306</v>
       </c>
       <c r="B306" s="3">
         <v>0.76851749871673403</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>266</v>
+        <v>307</v>
       </c>
       <c r="B307" s="3">
         <v>0.76851749871673403</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>267</v>
+        <v>308</v>
       </c>
       <c r="B308" s="3">
         <v>0.76593554578298995</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>268</v>
+        <v>309</v>
       </c>
       <c r="B309" s="3">
         <v>0.76591872954183204</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>269</v>
+        <v>310</v>
       </c>
       <c r="B310" s="3">
         <v>0.76591872954183204</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>270</v>
+        <v>311</v>
       </c>
       <c r="B311" s="3">
         <v>0.764818751694613</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>271</v>
+        <v>312</v>
       </c>
       <c r="B312" s="3">
         <v>0.76391244947917003</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>272</v>
+        <v>313</v>
       </c>
       <c r="B313" s="3">
         <v>0.76138956862609497</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>273</v>
+        <v>314</v>
       </c>
       <c r="B314" s="3">
         <v>0.76138956862609497</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>274</v>
+        <v>315</v>
       </c>
       <c r="B315" s="3">
         <v>0.75995251638335504</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>275</v>
+        <v>316</v>
       </c>
       <c r="B316" s="3">
         <v>0.758807167217604</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>276</v>
+        <v>317</v>
       </c>
       <c r="B317" s="3">
         <v>0.758807167217604</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>277</v>
+        <v>318</v>
       </c>
       <c r="B318" s="3">
         <v>0.75811182252401699</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>278</v>
+        <v>319</v>
       </c>
       <c r="B319" s="3">
         <v>0.75800253434963405</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>279</v>
+        <v>320</v>
       </c>
       <c r="B320" s="3">
         <v>0.75800253434963405</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>280</v>
+        <v>321</v>
       </c>
       <c r="B321" s="3">
         <v>0.75743385289922005</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>281</v>
+        <v>322</v>
       </c>
       <c r="B322" s="3">
         <v>0.75233111363424199</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>282</v>
+        <v>323</v>
       </c>
       <c r="B323" s="3">
         <v>0.75031515968068097</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>283</v>
+        <v>324</v>
       </c>
       <c r="B324" s="3">
         <v>0.75</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>284</v>
+        <v>325</v>
       </c>
       <c r="B325" s="3">
         <v>0.74845300639471501</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="B326" s="3">
         <v>0.74621850278815605</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>286</v>
+        <v>327</v>
       </c>
       <c r="B327" s="3">
         <v>0.74538682275137302</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>287</v>
+        <v>328</v>
       </c>
       <c r="B328" s="3">
         <v>0.74500715977170096</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>288</v>
+        <v>329</v>
       </c>
       <c r="B329" s="3">
         <v>0.74405470291124898</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="B330" s="3">
         <v>0.74301087958540901</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>290</v>
+        <v>331</v>
       </c>
       <c r="B331" s="3">
         <v>0.74018613881354001</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>291</v>
+        <v>332</v>
       </c>
       <c r="B332" s="3">
         <v>0.739520958083833</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>292</v>
+        <v>333</v>
       </c>
       <c r="B333" s="3">
         <v>0.73749864037006296</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>293</v>
+        <v>334</v>
       </c>
       <c r="B334" s="3">
         <v>0.73619770005136997</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>294</v>
+        <v>335</v>
       </c>
       <c r="B335" s="3">
         <v>0.73548925618365701</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>295</v>
+        <v>336</v>
       </c>
       <c r="B336" s="3">
         <v>0.73548925618365701</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>296</v>
+        <v>337</v>
       </c>
       <c r="B337" s="3">
         <v>0.73453932046701897</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>297</v>
+        <v>338</v>
       </c>
       <c r="B338" s="3">
         <v>0.73232921175217103</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>536</v>
+        <v>339</v>
       </c>
       <c r="B339" s="3">
         <v>0.73136587546726395</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>537</v>
+        <v>340</v>
       </c>
       <c r="B340" s="3">
         <v>0.73069780488700897</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>298</v>
+        <v>341</v>
       </c>
       <c r="B341" s="3">
         <v>0.73018163411214398</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>299</v>
+        <v>342</v>
       </c>
       <c r="B342" s="3">
         <v>0.72486615371501495</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>300</v>
+        <v>343</v>
       </c>
       <c r="B343" s="3">
         <v>0.72486615371501395</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>538</v>
+        <v>344</v>
       </c>
       <c r="B344" s="3">
         <v>0.72366696117999996</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>539</v>
+        <v>345</v>
       </c>
       <c r="B345" s="3">
         <v>0.72225673287132797</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>301</v>
+        <v>346</v>
       </c>
       <c r="B346" s="3">
         <v>0.72175098405521099</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>540</v>
+        <v>347</v>
       </c>
       <c r="B347" s="3">
         <v>0.72122545754488399</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>302</v>
+        <v>348</v>
       </c>
       <c r="B348" s="3">
         <v>0.72072492765319696</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>303</v>
+        <v>349</v>
       </c>
       <c r="B349" s="3">
         <v>0.71423473643315205</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>304</v>
+        <v>350</v>
       </c>
       <c r="B350" s="3">
         <v>0.71392954006300602</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>305</v>
+        <v>351</v>
       </c>
       <c r="B351" s="3">
         <v>0.71153820161109205</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>306</v>
+        <v>352</v>
       </c>
       <c r="B352" s="3">
         <v>0.71138700479774797</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>307</v>
+        <v>353</v>
       </c>
       <c r="B353" s="3">
         <v>0.71138700479774797</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>308</v>
+        <v>354</v>
       </c>
       <c r="B354" s="3">
         <v>0.71039931427939396</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>309</v>
+        <v>355</v>
       </c>
       <c r="B355" s="3">
         <v>0.70953905047616495</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>310</v>
+        <v>356</v>
       </c>
       <c r="B356" s="3">
         <v>0.70939998315816899</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>311</v>
+        <v>357</v>
       </c>
       <c r="B357" s="3">
         <v>0.70896980445993896</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>312</v>
+        <v>358</v>
       </c>
       <c r="B358" s="3">
         <v>0.70860018732283003</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>541</v>
+        <v>359</v>
       </c>
       <c r="B359" s="3">
         <v>0.70732358150874697</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>313</v>
+        <v>360</v>
       </c>
       <c r="B360" s="3">
         <v>0.70719308079185095</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>314</v>
+        <v>361</v>
       </c>
       <c r="B361" s="3">
         <v>0.70692998679651198</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>315</v>
+        <v>362</v>
       </c>
       <c r="B362" s="3">
         <v>0.70618406080489704</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>316</v>
+        <v>363</v>
       </c>
       <c r="B363" s="3">
         <v>0.70618406080489704</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>542</v>
+        <v>364</v>
       </c>
       <c r="B364" s="3">
         <v>0.70590144610712902</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>543</v>
+        <v>365</v>
       </c>
       <c r="B365" s="3">
         <v>0.70355162445788799</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>317</v>
+        <v>366</v>
       </c>
       <c r="B366" s="3">
         <v>0.70306052549510101</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>318</v>
+        <v>367</v>
       </c>
       <c r="B367" s="3">
         <v>0.70306052549510001</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>544</v>
+        <v>368</v>
       </c>
       <c r="B368" s="3">
         <v>0.70183529565612601</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>319</v>
+        <v>369</v>
       </c>
       <c r="B369" s="3">
         <v>0.69948186528497402</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>320</v>
+        <v>370</v>
       </c>
       <c r="B370" s="3">
         <v>0.69948186528497402</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>321</v>
+        <v>371</v>
       </c>
       <c r="B371" s="3">
         <v>0.69761023927442001</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>322</v>
+        <v>372</v>
       </c>
       <c r="B372" s="3">
         <v>0.69643144831237402</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>323</v>
+        <v>373</v>
       </c>
       <c r="B373" s="3">
         <v>0.69570990162581603</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>545</v>
+        <v>374</v>
       </c>
       <c r="B374" s="3">
         <v>0.69409898686928395</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>324</v>
+        <v>375</v>
       </c>
       <c r="B375" s="3">
         <v>0.69409042062406001</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>325</v>
+        <v>376</v>
       </c>
       <c r="B376" s="3">
         <v>0.69321097729138303</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>326</v>
+        <v>377</v>
       </c>
       <c r="B377" s="3">
         <v>0.69253168304001</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>327</v>
+        <v>378</v>
       </c>
       <c r="B378" s="3">
         <v>0.69014371918095097</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>328</v>
+        <v>379</v>
       </c>
       <c r="B379" s="3">
         <v>0.68983957219251302</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>329</v>
+        <v>380</v>
       </c>
       <c r="B380" s="3">
         <v>0.68965487186205199</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>330</v>
+        <v>381</v>
       </c>
       <c r="B381" s="3">
         <v>0.68965487186205199</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>331</v>
+        <v>382</v>
       </c>
       <c r="B382" s="3">
         <v>0.68862802695299097</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>332</v>
+        <v>383</v>
       </c>
       <c r="B383" s="3">
         <v>0.68844094506239994</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>333</v>
+        <v>384</v>
       </c>
       <c r="B384" s="3">
         <v>0.68831611482883204</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>334</v>
+        <v>385</v>
       </c>
       <c r="B385" s="3">
         <v>0.68682731430978095</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>546</v>
+        <v>386</v>
       </c>
       <c r="B386" s="3">
         <v>0.68516090581005196</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>335</v>
+        <v>387</v>
       </c>
       <c r="B387" s="3">
         <v>0.68512337245626997</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>336</v>
+        <v>388</v>
       </c>
       <c r="B388" s="3">
         <v>0.68120281465958499</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>337</v>
+        <v>389</v>
       </c>
       <c r="B389" s="3">
         <v>0.68026341981946004</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>338</v>
+        <v>390</v>
       </c>
       <c r="B390" s="3">
         <v>0.67976747670037596</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>339</v>
+        <v>391</v>
       </c>
       <c r="B391" s="3">
         <v>0.67740645798546595</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>340</v>
+        <v>392</v>
       </c>
       <c r="B392" s="3">
         <v>0.67692273008800596</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>341</v>
+        <v>393</v>
       </c>
       <c r="B393" s="3">
         <v>0.67615737316964897</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>342</v>
+        <v>394</v>
       </c>
       <c r="B394" s="3">
         <v>0.67108821470089197</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>343</v>
+        <v>395</v>
       </c>
       <c r="B395" s="3">
         <v>0.67091713294861699</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>344</v>
+        <v>396</v>
       </c>
       <c r="B396" s="3">
         <v>0.66999434383656198</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>345</v>
+        <v>397</v>
       </c>
       <c r="B397" s="3">
         <v>0.66971857186391603</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>346</v>
+        <v>398</v>
       </c>
       <c r="B398" s="3">
         <v>0.66494693985120201</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>347</v>
+        <v>399</v>
       </c>
       <c r="B399" s="3">
         <v>0.664605317235471</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>348</v>
+        <v>400</v>
       </c>
       <c r="B400" s="3">
         <v>0.66382271687212002</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>349</v>
+        <v>401</v>
       </c>
       <c r="B401" s="3">
         <v>0.66178900613664704</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>350</v>
+        <v>402</v>
       </c>
       <c r="B402" s="3">
         <v>0.65759237404058102</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>547</v>
+        <v>403</v>
       </c>
       <c r="B403" s="3">
         <v>0.65469703756127295</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>351</v>
+        <v>404</v>
       </c>
       <c r="B404" s="3">
         <v>0.65347243383561704</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>352</v>
+        <v>405</v>
       </c>
       <c r="B405" s="3">
         <v>0.65301455878049097</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>548</v>
+        <v>406</v>
       </c>
       <c r="B406" s="3">
         <v>0.65223514814614503</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>353</v>
+        <v>407</v>
       </c>
       <c r="B407" s="3">
         <v>0.65061124342828403</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>354</v>
+        <v>408</v>
       </c>
       <c r="B408" s="3">
         <v>0.64627732789693504</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>355</v>
+        <v>409</v>
       </c>
       <c r="B409" s="3">
         <v>0.64612174908739095</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>356</v>
+        <v>410</v>
       </c>
       <c r="B410" s="3">
         <v>0.64536127971699198</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>357</v>
+        <v>411</v>
       </c>
       <c r="B411" s="3">
         <v>0.64464374289547999</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>549</v>
+        <v>412</v>
       </c>
       <c r="B412" s="3">
         <v>0.64455102706660505</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>358</v>
+        <v>413</v>
       </c>
       <c r="B413" s="3">
         <v>0.64317151278296902</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>359</v>
+        <v>414</v>
       </c>
       <c r="B414" s="3">
         <v>0.64196762237020399</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>360</v>
+        <v>415</v>
       </c>
       <c r="B415" s="3">
         <v>0.64021398848040301</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>361</v>
+        <v>416</v>
       </c>
       <c r="B416" s="3">
         <v>0.63970584608436798</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>362</v>
+        <v>417</v>
       </c>
       <c r="B417" s="3">
         <v>0.638574445625258</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>363</v>
+        <v>418</v>
       </c>
       <c r="B418" s="3">
         <v>0.63782853185259503</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>550</v>
+        <v>419</v>
       </c>
       <c r="B419" s="3">
         <v>0.63279779862828101</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>364</v>
+        <v>420</v>
       </c>
       <c r="B420" s="3">
         <v>0.63108061854117403</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>551</v>
+        <v>421</v>
       </c>
       <c r="B421" s="3">
         <v>0.63032451996283101</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>552</v>
+        <v>422</v>
       </c>
       <c r="B422" s="3">
         <v>0.62968595693218599</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>365</v>
+        <v>423</v>
       </c>
       <c r="B423" s="3">
         <v>0.62880770362217797</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>366</v>
+        <v>424</v>
       </c>
       <c r="B424" s="3">
         <v>0.62816691183663498</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>367</v>
+        <v>425</v>
       </c>
       <c r="B425" s="3">
         <v>0.62694103467481599</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>368</v>
+        <v>426</v>
       </c>
       <c r="B426" s="3">
         <v>0.62677122751221603</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>369</v>
+        <v>427</v>
       </c>
       <c r="B427" s="3">
         <v>0.62677122751221603</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>370</v>
+        <v>428</v>
       </c>
       <c r="B428" s="3">
         <v>0.62673761224830704</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>371</v>
+        <v>429</v>
       </c>
       <c r="B429" s="3">
         <v>0.62621012908973706</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>372</v>
+        <v>430</v>
       </c>
       <c r="B430" s="3">
         <v>0.62549291877491198</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>373</v>
+        <v>431</v>
       </c>
       <c r="B431" s="3">
         <v>0.62266301447037398</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>374</v>
+        <v>432</v>
       </c>
       <c r="B432" s="3">
         <v>0.62259020034683898</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>375</v>
+        <v>433</v>
       </c>
       <c r="B433" s="3">
         <v>0.62190316367958598</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>376</v>
+        <v>434</v>
       </c>
       <c r="B434" s="3">
         <v>0.62092889722514899</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>377</v>
+        <v>435</v>
       </c>
       <c r="B435" s="3">
         <v>0.62092889722514899</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>378</v>
+        <v>436</v>
       </c>
       <c r="B436" s="3">
         <v>0.61913660918406999</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>379</v>
+        <v>437</v>
       </c>
       <c r="B437" s="3">
         <v>0.617306118979568</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>380</v>
+        <v>438</v>
       </c>
       <c r="B438" s="3">
         <v>0.61707699093809298</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>381</v>
+        <v>439</v>
       </c>
       <c r="B439" s="3">
         <v>0.61707699093809298</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>553</v>
+        <v>440</v>
       </c>
       <c r="B440" s="3">
         <v>0.61687843567395095</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>382</v>
+        <v>441</v>
       </c>
       <c r="B441" s="3">
         <v>0.61414134791046504</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>383</v>
+        <v>442</v>
       </c>
       <c r="B442" s="3">
         <v>0.61243118585885503</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>384</v>
+        <v>443</v>
       </c>
       <c r="B443" s="3">
         <v>0.61194748199637605</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>385</v>
+        <v>444</v>
       </c>
       <c r="B444" s="3">
         <v>0.61171204578467198</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>386</v>
+        <v>445</v>
       </c>
       <c r="B445" s="3">
         <v>0.60856277951069704</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>387</v>
+        <v>446</v>
       </c>
       <c r="B446" s="3">
         <v>0.60843092691301304</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>388</v>
+        <v>447</v>
       </c>
       <c r="B447" s="3">
         <v>0.60532190027961197</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>389</v>
+        <v>448</v>
       </c>
       <c r="B448" s="3">
         <v>0.60382758779830303</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>554</v>
+        <v>449</v>
       </c>
       <c r="B449" s="3">
         <v>0.603098252030416</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>390</v>
+        <v>450</v>
       </c>
       <c r="B450" s="3">
         <v>0.60249851919878294</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>555</v>
+        <v>451</v>
       </c>
       <c r="B451" s="3">
         <v>0.600960573602357</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>391</v>
+        <v>452</v>
       </c>
       <c r="B452" s="3">
         <v>0.59457485409690403</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>392</v>
+        <v>453</v>
       </c>
       <c r="B453" s="3">
         <v>0.59457485409690403</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>393</v>
+        <v>454</v>
       </c>
       <c r="B454" s="3">
         <v>0.59069704029032899</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>394</v>
+        <v>455</v>
       </c>
       <c r="B455" s="3">
         <v>0.58945992650935097</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>395</v>
+        <v>456</v>
       </c>
       <c r="B456" s="3">
         <v>0.583987963009726</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>556</v>
+        <v>457</v>
       </c>
       <c r="B457" s="3">
         <v>0.58339713714952801</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>557</v>
+        <v>458</v>
       </c>
       <c r="B458" s="3">
         <v>0.57778070409890903</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>396</v>
+        <v>459</v>
       </c>
       <c r="B459" s="3">
         <v>0.57556795172156106</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>558</v>
+        <v>460</v>
       </c>
       <c r="B460" s="3">
         <v>0.57511444366417197</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>397</v>
+        <v>461</v>
       </c>
       <c r="B461" s="3">
         <v>0.57395005918186404</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>398</v>
+        <v>462</v>
       </c>
       <c r="B462" s="3">
         <v>0.57395005918186404</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>399</v>
+        <v>463</v>
       </c>
       <c r="B463" s="3">
         <v>0.57071280629050503</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>400</v>
+        <v>464</v>
       </c>
       <c r="B464" s="3">
         <v>0.56589184889113098</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>401</v>
+        <v>465</v>
       </c>
       <c r="B465" s="3">
         <v>0.56458429348570405</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>402</v>
+        <v>466</v>
       </c>
       <c r="B466" s="3">
         <v>0.56458429348570405</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>403</v>
+        <v>467</v>
       </c>
       <c r="B467" s="3">
         <v>0.56251085832353798</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>404</v>
+        <v>468</v>
       </c>
       <c r="B468" s="3">
         <v>0.55259905432080902</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>405</v>
+        <v>469</v>
       </c>
       <c r="B469" s="3">
         <v>0.55259905432080902</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>406</v>
+        <v>470</v>
       </c>
       <c r="B470" s="3">
         <v>0.55090217854505596</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>559</v>
+        <v>471</v>
       </c>
       <c r="B471" s="3">
         <v>0.54968239129905105</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>407</v>
+        <v>472</v>
       </c>
       <c r="B472" s="3">
         <v>0.54897632018971598</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>408</v>
+        <v>473</v>
       </c>
       <c r="B473" s="3">
         <v>0.54820931972500997</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>409</v>
+        <v>474</v>
       </c>
       <c r="B474" s="3">
         <v>0.54820931972500997</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>560</v>
+        <v>475</v>
       </c>
       <c r="B475" s="3">
         <v>0.54709970130834595</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>561</v>
+        <v>476</v>
       </c>
       <c r="B476" s="3">
         <v>0.54601027288374104</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>410</v>
+        <v>477</v>
       </c>
       <c r="B477" s="3">
         <v>0.54417292967770403</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>411</v>
+        <v>478</v>
       </c>
       <c r="B478" s="3">
         <v>0.54305945794124499</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>412</v>
+        <v>479</v>
       </c>
       <c r="B479" s="3">
         <v>0.54048307551456598</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>413</v>
+        <v>480</v>
       </c>
       <c r="B480" s="3">
         <v>0.54048307551456498</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>414</v>
+        <v>481</v>
       </c>
       <c r="B481" s="3">
         <v>0.53848028266284198</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>415</v>
+        <v>482</v>
       </c>
       <c r="B482" s="3">
         <v>0.53848028266284198</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>416</v>
+        <v>483</v>
       </c>
       <c r="B483" s="3">
         <v>0.53841488776480395</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>417</v>
+        <v>484</v>
       </c>
       <c r="B484" s="3">
         <v>0.53805472894293804</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>418</v>
+        <v>485</v>
       </c>
       <c r="B485" s="3">
         <v>0.53805472894293804</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>562</v>
+        <v>486</v>
       </c>
       <c r="B486" s="3">
         <v>0.53769702178422796</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>419</v>
+        <v>487</v>
       </c>
       <c r="B487" s="3">
         <v>0.53390930222292199</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>420</v>
+        <v>488</v>
       </c>
       <c r="B488" s="3">
         <v>0.53121709172938103</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>421</v>
+        <v>489</v>
       </c>
       <c r="B489" s="3">
         <v>0.53102517985611497</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>422</v>
+        <v>490</v>
       </c>
       <c r="B490" s="3">
         <v>0.52496419446138798</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>423</v>
+        <v>491</v>
       </c>
       <c r="B491" s="3">
         <v>0.52028373951316798</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>424</v>
+        <v>492</v>
       </c>
       <c r="B492" s="3">
         <v>0.51847729504728901</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>425</v>
+        <v>493</v>
       </c>
       <c r="B493" s="3">
         <v>0.512753278321461</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>563</v>
+        <v>494</v>
       </c>
       <c r="B494" s="3">
         <v>0.51107603087015996</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>426</v>
+        <v>495</v>
       </c>
       <c r="B495" s="3">
         <v>0.50760927474462003</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>427</v>
+        <v>496</v>
       </c>
       <c r="B496" s="3">
         <v>0.50503919372900297</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>428</v>
+        <v>497</v>
       </c>
       <c r="B497" s="3">
         <v>0.49760831920301402</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>429</v>
+        <v>498</v>
       </c>
       <c r="B498" s="3">
         <v>0.49711430750200603</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>430</v>
+        <v>499</v>
       </c>
       <c r="B499" s="3">
         <v>0.49356313569724303</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>431</v>
+        <v>500</v>
       </c>
       <c r="B500" s="3">
         <v>0.48208260616637599</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>564</v>
+        <v>501</v>
       </c>
       <c r="B501" s="3">
         <v>0.48148552742084599</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>432</v>
+        <v>502</v>
       </c>
       <c r="B502" s="3">
         <v>0.47248378741943903</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>433</v>
+        <v>503</v>
       </c>
       <c r="B503" s="3">
         <v>0.47179639572851501</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>434</v>
+        <v>504</v>
       </c>
       <c r="B504" s="3">
         <v>0.47148728981354698</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>435</v>
+        <v>505</v>
       </c>
       <c r="B505" s="3">
         <v>0.47024137103096297</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>565</v>
+        <v>506</v>
       </c>
       <c r="B506" s="3">
         <v>0.469337576458563</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>436</v>
+        <v>507</v>
       </c>
       <c r="B507" s="3">
         <v>0.46504275158895297</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>437</v>
+        <v>508</v>
       </c>
       <c r="B508" s="3">
         <v>0.45681289775816603</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>438</v>
+        <v>509</v>
       </c>
       <c r="B509" s="3">
         <v>0.44065609010306001</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>439</v>
+        <v>510</v>
       </c>
       <c r="B510" s="3">
         <v>0.43825769926193697</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>440</v>
+        <v>511</v>
       </c>
       <c r="B511" s="3">
         <v>0.43825769926193697</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>441</v>
+        <v>512</v>
       </c>
       <c r="B512" s="3">
         <v>0.43597658662584998</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>442</v>
+        <v>513</v>
       </c>
       <c r="B513" s="3">
         <v>0.43597658662584898</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>443</v>
+        <v>514</v>
       </c>
       <c r="B514" s="3">
         <v>0.43057926956232001</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>444</v>
+        <v>515</v>
       </c>
       <c r="B515" s="3">
         <v>0.41955146186911602</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>445</v>
+        <v>516</v>
       </c>
       <c r="B516" s="3">
         <v>0.40778462486566103</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>446</v>
+        <v>517</v>
       </c>
       <c r="B517" s="3">
         <v>0.40538839238522301</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>447</v>
+        <v>518</v>
       </c>
       <c r="B518" s="3">
         <v>0.40538839238522301</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>448</v>
+        <v>519</v>
       </c>
       <c r="B519" s="3">
         <v>0.39394245330641098</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>449</v>
+        <v>520</v>
       </c>
       <c r="B520" s="3">
         <v>0.38095038701663603</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>450</v>
+        <v>521</v>
       </c>
       <c r="B521" s="3">
         <v>0.38095038701663603</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>451</v>
+        <v>522</v>
       </c>
       <c r="B522" s="3">
         <v>0.37926627975081201</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>452</v>
+        <v>523</v>
       </c>
       <c r="B523" s="3">
         <v>0.362138616038995</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>453</v>
+        <v>524</v>
       </c>
       <c r="B524" s="3">
         <v>0.362138616038995</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>454</v>
+        <v>525</v>
       </c>
       <c r="B525" s="3">
         <v>0.33977084616014802</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>455</v>
+        <v>526</v>
       </c>
       <c r="B526" s="3">
         <v>0.33830194785977602</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
-        <v>456</v>
+        <v>527</v>
       </c>
       <c r="B527" s="3">
         <v>0.33830194785977602</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
-        <v>457</v>
+        <v>528</v>
       </c>
       <c r="B528" s="3">
         <v>0.312851697071312</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
-        <v>458</v>
+        <v>529</v>
       </c>
       <c r="B529" s="3">
         <v>0.28224188376736498</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
-        <v>459</v>
+        <v>530</v>
       </c>
       <c r="B530" s="3">
         <v>0.27587316399814099</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
-        <v>460</v>
+        <v>531</v>
       </c>
       <c r="B531" s="3">
         <v>0.27272979330202202</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
-        <v>461</v>
+        <v>532</v>
       </c>
       <c r="B532" s="3">
         <v>0.247138045303334</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
-        <v>462</v>
+        <v>533</v>
       </c>
       <c r="B533" s="3">
         <v>0.247138045303334</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
-        <v>463</v>
+        <v>534</v>
       </c>
       <c r="B534" s="3">
         <v>0.24558511227024299</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
-        <v>464</v>
+        <v>535</v>
       </c>
       <c r="B535" s="3">
         <v>0.197221260476414</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
-        <v>465</v>
+        <v>536</v>
       </c>
       <c r="B536" s="3">
         <v>0.185683133795608</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
-        <v>466</v>
+        <v>537</v>
       </c>
       <c r="B537" s="3">
         <v>0.18414781343814801</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
-        <v>467</v>
+        <v>538</v>
       </c>
       <c r="B538" s="3">
         <v>0.17875268630768401</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
-        <v>468</v>
+        <v>539</v>
       </c>
       <c r="B539" s="3">
         <v>0.17875268630768401</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
-        <v>469</v>
+        <v>540</v>
       </c>
       <c r="B540" s="3">
         <v>0.15915348731918</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
-        <v>470</v>
+        <v>541</v>
       </c>
       <c r="B541" s="3">
         <v>0.15403882100573599</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
-        <v>471</v>
+        <v>542</v>
       </c>
       <c r="B542" s="3">
         <v>0.116792086225442</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
-        <v>472</v>
+        <v>543</v>
       </c>
       <c r="B543" s="3">
         <v>8.52790621457169E-2</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
-        <v>473</v>
+        <v>544</v>
       </c>
       <c r="B544" s="3">
         <v>6.7583439817250596E-2</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
-        <v>474</v>
+        <v>545</v>
       </c>
       <c r="B545" s="3">
         <v>5.9876889324410702E-2</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
-        <v>475</v>
+        <v>546</v>
       </c>
       <c r="B546" s="3">
         <v>3.1666405392694802E-2</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
-        <v>476</v>
+        <v>547</v>
       </c>
       <c r="B547" s="3">
         <v>-9.5986342808797404E-15</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
-        <v>494</v>
+        <v>565</v>
       </c>
     </row>
   </sheetData>
